--- a/Documentação/Planilhas/Posicionamento Migração.xlsx
+++ b/Documentação/Planilhas/Posicionamento Migração.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="1025">
   <si>
     <t>BI - Abertura Estoque</t>
   </si>
@@ -3091,6 +3091,12 @@
   </si>
   <si>
     <t>ods_relatorio_orders_approved</t>
+  </si>
+  <si>
+    <t>LOJA</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3273,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,9 +3300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3303,27 +3309,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3445,6 +3438,32 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3456,20 +3475,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:H483" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:H483">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:I483" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I483">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Relatório Follow"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
+    <filterColumn colId="8"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Processo" dataDxfId="9"/>
-    <tableColumn id="8" name="Periodicidade de Carga" dataDxfId="8"/>
-    <tableColumn id="7" name="dtsx" dataDxfId="7"/>
-    <tableColumn id="2" name="Sequence Container" dataDxfId="6"/>
-    <tableColumn id="3" name="Data Flow Task" dataDxfId="5"/>
-    <tableColumn id="4" name="Tabela gerada" dataDxfId="4"/>
-    <tableColumn id="5" name="Database Dependência" dataDxfId="3"/>
-    <tableColumn id="6" name="Tabela Dependência" dataDxfId="2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Processo" dataDxfId="8"/>
+    <tableColumn id="8" name="Periodicidade de Carga" dataDxfId="7"/>
+    <tableColumn id="7" name="dtsx" dataDxfId="6"/>
+    <tableColumn id="2" name="Sequence Container" dataDxfId="5"/>
+    <tableColumn id="3" name="Data Flow Task" dataDxfId="4"/>
+    <tableColumn id="4" name="Tabela gerada" dataDxfId="3"/>
+    <tableColumn id="5" name="Database Dependência" dataDxfId="2"/>
+    <tableColumn id="6" name="Tabela Dependência" dataDxfId="1"/>
+    <tableColumn id="9" name="Colunas1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6164,19 +6190,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
         <v>250</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="32" t="s">
         <v>253</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -6190,13 +6216,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
@@ -6204,66 +6230,66 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="32" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6582,19 +6608,19 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="29" t="s">
         <v>268</v>
       </c>
@@ -6606,37 +6632,37 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -6814,19 +6840,19 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="20" t="s">
         <v>344</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -6834,26 +6860,27 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="5" t="s">
         <v>346</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="H4:H5"/>
@@ -6865,14 +6892,13 @@
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="H21:H24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7645,11 +7671,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H483"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H269" sqref="H269:H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7665,7 +7691,7 @@
     <col min="9" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>347</v>
       </c>
@@ -7690,8 +7716,11 @@
       <c r="H1" s="15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="18" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="15" t="s">
         <v>357</v>
       </c>
@@ -7716,8 +7745,9 @@
       <c r="H2" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="15" t="s">
         <v>357</v>
       </c>
@@ -7742,8 +7772,9 @@
       <c r="H3" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="15" t="s">
         <v>357</v>
       </c>
@@ -7768,8 +7799,9 @@
       <c r="H4" s="15" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="15" t="s">
         <v>357</v>
       </c>
@@ -7794,8 +7826,9 @@
       <c r="H5" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="15" t="s">
         <v>357</v>
       </c>
@@ -7820,8 +7853,9 @@
       <c r="H6" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="15" t="s">
         <v>357</v>
       </c>
@@ -7846,8 +7880,9 @@
       <c r="H7" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="15" t="s">
         <v>357</v>
       </c>
@@ -7872,8 +7907,9 @@
       <c r="H8" s="15" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="15" t="s">
         <v>357</v>
       </c>
@@ -7898,8 +7934,9 @@
       <c r="H9" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="15" t="s">
         <v>357</v>
       </c>
@@ -7924,8 +7961,9 @@
       <c r="H10" s="15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="15" t="s">
         <v>357</v>
       </c>
@@ -7950,8 +7988,9 @@
       <c r="H11" s="15" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="15" t="s">
         <v>357</v>
       </c>
@@ -7976,8 +8015,9 @@
       <c r="H12" s="15" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="15" t="s">
         <v>357</v>
       </c>
@@ -8002,8 +8042,9 @@
       <c r="H13" s="15" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="15" t="s">
         <v>357</v>
       </c>
@@ -8028,8 +8069,9 @@
       <c r="H14" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="15" t="s">
         <v>357</v>
       </c>
@@ -8054,8 +8096,9 @@
       <c r="H15" s="15" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="15" t="s">
         <v>357</v>
       </c>
@@ -8080,8 +8123,9 @@
       <c r="H16" s="15" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="15" t="s">
         <v>357</v>
       </c>
@@ -8106,8 +8150,9 @@
       <c r="H17" s="15" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="15" t="s">
         <v>357</v>
       </c>
@@ -8132,8 +8177,9 @@
       <c r="H18" s="15" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="15" t="s">
         <v>357</v>
       </c>
@@ -8158,8 +8204,9 @@
       <c r="H19" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="15" t="s">
         <v>357</v>
       </c>
@@ -8184,8 +8231,9 @@
       <c r="H20" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="15" t="s">
         <v>357</v>
       </c>
@@ -8210,8 +8258,9 @@
       <c r="H21" s="15" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="15" t="s">
         <v>357</v>
       </c>
@@ -8236,8 +8285,9 @@
       <c r="H22" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="15" t="s">
         <v>357</v>
       </c>
@@ -8262,8 +8312,9 @@
       <c r="H23" s="15" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="15" t="s">
         <v>357</v>
       </c>
@@ -8288,8 +8339,9 @@
       <c r="H24" s="15" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="15" t="s">
         <v>357</v>
       </c>
@@ -8314,8 +8366,9 @@
       <c r="H25" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="15" t="s">
         <v>357</v>
       </c>
@@ -8340,8 +8393,9 @@
       <c r="H26" s="15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="15" t="s">
         <v>357</v>
       </c>
@@ -8366,8 +8420,9 @@
       <c r="H27" s="15" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="15" t="s">
         <v>352</v>
       </c>
@@ -8392,8 +8447,9 @@
       <c r="H28" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="15" t="s">
         <v>352</v>
       </c>
@@ -8418,8 +8474,9 @@
       <c r="H29" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="15" t="s">
         <v>352</v>
       </c>
@@ -8444,8 +8501,9 @@
       <c r="H30" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="15" t="s">
         <v>352</v>
       </c>
@@ -8470,8 +8528,9 @@
       <c r="H31" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="15" t="s">
         <v>352</v>
       </c>
@@ -8496,8 +8555,9 @@
       <c r="H32" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="15" t="s">
         <v>352</v>
       </c>
@@ -8522,8 +8582,9 @@
       <c r="H33" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="15" t="s">
         <v>352</v>
       </c>
@@ -8548,8 +8609,9 @@
       <c r="H34" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="15" t="s">
         <v>352</v>
       </c>
@@ -8574,8 +8636,9 @@
       <c r="H35" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="15" t="s">
         <v>352</v>
       </c>
@@ -8600,8 +8663,9 @@
       <c r="H36" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="15" t="s">
         <v>352</v>
       </c>
@@ -8626,8 +8690,9 @@
       <c r="H37" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="15" t="s">
         <v>352</v>
       </c>
@@ -8652,8 +8717,9 @@
       <c r="H38" s="15" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="15" t="s">
         <v>352</v>
       </c>
@@ -8678,8 +8744,9 @@
       <c r="H39" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="15" t="s">
         <v>352</v>
       </c>
@@ -8704,8 +8771,9 @@
       <c r="H40" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="15" t="s">
         <v>352</v>
       </c>
@@ -8730,8 +8798,9 @@
       <c r="H41" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="15" t="s">
         <v>352</v>
       </c>
@@ -8756,8 +8825,9 @@
       <c r="H42" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="15" t="s">
         <v>352</v>
       </c>
@@ -8782,8 +8852,9 @@
       <c r="H43" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="15" t="s">
         <v>352</v>
       </c>
@@ -8808,8 +8879,9 @@
       <c r="H44" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="15" t="s">
         <v>352</v>
       </c>
@@ -8834,8 +8906,9 @@
       <c r="H45" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="15" t="s">
         <v>352</v>
       </c>
@@ -8860,8 +8933,11 @@
       <c r="H46" s="15" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="18" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="15" t="s">
         <v>352</v>
       </c>
@@ -8886,8 +8962,9 @@
       <c r="H47" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="15" t="s">
         <v>352</v>
       </c>
@@ -8912,8 +8989,9 @@
       <c r="H48" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="15" t="s">
         <v>352</v>
       </c>
@@ -8938,8 +9016,9 @@
       <c r="H49" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="15" t="s">
         <v>352</v>
       </c>
@@ -8964,8 +9043,9 @@
       <c r="H50" s="15" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="15" t="s">
         <v>352</v>
       </c>
@@ -8990,8 +9070,9 @@
       <c r="H51" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="15" t="s">
         <v>352</v>
       </c>
@@ -9016,8 +9097,9 @@
       <c r="H52" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="15" t="s">
         <v>352</v>
       </c>
@@ -9042,8 +9124,9 @@
       <c r="H53" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="15" t="s">
         <v>352</v>
       </c>
@@ -9068,8 +9151,9 @@
       <c r="H54" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="15" t="s">
         <v>352</v>
       </c>
@@ -9094,8 +9178,9 @@
       <c r="H55" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="15" t="s">
         <v>352</v>
       </c>
@@ -9120,8 +9205,9 @@
       <c r="H56" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="15" t="s">
         <v>352</v>
       </c>
@@ -9146,8 +9232,9 @@
       <c r="H57" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="15" t="s">
         <v>352</v>
       </c>
@@ -9172,8 +9259,9 @@
       <c r="H58" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="15" t="s">
         <v>352</v>
       </c>
@@ -9198,8 +9286,9 @@
       <c r="H59" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="15" t="s">
         <v>352</v>
       </c>
@@ -9224,8 +9313,9 @@
       <c r="H60" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="15" t="s">
         <v>352</v>
       </c>
@@ -9250,8 +9340,9 @@
       <c r="H61" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="15" t="s">
         <v>352</v>
       </c>
@@ -9276,8 +9367,9 @@
       <c r="H62" s="15" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="15" t="s">
         <v>352</v>
       </c>
@@ -9302,8 +9394,9 @@
       <c r="H63" s="15" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="15" t="s">
         <v>361</v>
       </c>
@@ -9328,8 +9421,9 @@
       <c r="H64" s="15" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="15" t="s">
         <v>361</v>
       </c>
@@ -9354,8 +9448,9 @@
       <c r="H65" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="15" t="s">
         <v>361</v>
       </c>
@@ -9380,8 +9475,9 @@
       <c r="H66" s="15" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="15" t="s">
         <v>361</v>
       </c>
@@ -9406,8 +9502,9 @@
       <c r="H67" s="15" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="15" t="s">
         <v>365</v>
       </c>
@@ -9432,8 +9529,9 @@
       <c r="H68" s="15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="15" t="s">
         <v>365</v>
       </c>
@@ -9458,8 +9556,9 @@
       <c r="H69" s="15" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="15" t="s">
         <v>365</v>
       </c>
@@ -9484,8 +9583,9 @@
       <c r="H70" s="15" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="15" t="s">
         <v>365</v>
       </c>
@@ -9510,8 +9610,9 @@
       <c r="H71" s="15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="15" t="s">
         <v>365</v>
       </c>
@@ -9536,8 +9637,9 @@
       <c r="H72" s="15" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="15" t="s">
         <v>365</v>
       </c>
@@ -9562,8 +9664,9 @@
       <c r="H73" s="15" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="15" t="s">
         <v>365</v>
       </c>
@@ -9588,8 +9691,9 @@
       <c r="H74" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="15" t="s">
         <v>369</v>
       </c>
@@ -9614,8 +9718,9 @@
       <c r="H75" s="15" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="15" t="s">
         <v>369</v>
       </c>
@@ -9640,8 +9745,9 @@
       <c r="H76" s="15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="15" t="s">
         <v>369</v>
       </c>
@@ -9666,8 +9772,9 @@
       <c r="H77" s="15" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="15" t="s">
         <v>369</v>
       </c>
@@ -9692,8 +9799,9 @@
       <c r="H78" s="15" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="15" t="s">
         <v>371</v>
       </c>
@@ -9715,8 +9823,9 @@
       <c r="G79" s="15" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="15" t="s">
         <v>374</v>
       </c>
@@ -9735,8 +9844,9 @@
       <c r="H80" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="15" t="s">
         <v>374</v>
       </c>
@@ -9755,8 +9865,9 @@
       <c r="H81" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="15" t="s">
         <v>374</v>
       </c>
@@ -9775,8 +9886,9 @@
       <c r="H82" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="15" t="s">
         <v>374</v>
       </c>
@@ -9795,8 +9907,9 @@
       <c r="H83" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="15" t="s">
         <v>377</v>
       </c>
@@ -9821,8 +9934,9 @@
       <c r="H84" s="15" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="15" t="s">
         <v>377</v>
       </c>
@@ -9847,8 +9961,9 @@
       <c r="H85" s="15" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="15" t="s">
         <v>377</v>
       </c>
@@ -9873,8 +9988,9 @@
       <c r="H86" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="15" t="s">
         <v>377</v>
       </c>
@@ -9899,8 +10015,9 @@
       <c r="H87" s="15" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="15" t="s">
         <v>377</v>
       </c>
@@ -9925,8 +10042,9 @@
       <c r="H88" s="15" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="15" t="s">
         <v>381</v>
       </c>
@@ -9951,8 +10069,9 @@
       <c r="H89" s="15" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="15" t="s">
         <v>381</v>
       </c>
@@ -9977,8 +10096,9 @@
       <c r="H90" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="15" t="s">
         <v>381</v>
       </c>
@@ -10003,8 +10123,9 @@
       <c r="H91" s="15" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="15" t="s">
         <v>381</v>
       </c>
@@ -10029,8 +10150,9 @@
       <c r="H92" s="15" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" s="15" t="s">
         <v>381</v>
       </c>
@@ -10055,8 +10177,9 @@
       <c r="H93" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="15" t="s">
         <v>381</v>
       </c>
@@ -10081,8 +10204,9 @@
       <c r="H94" s="15" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="15" t="s">
         <v>381</v>
       </c>
@@ -10107,8 +10231,9 @@
       <c r="H95" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="15" t="s">
         <v>381</v>
       </c>
@@ -10133,8 +10258,9 @@
       <c r="H96" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="15" t="s">
         <v>381</v>
       </c>
@@ -10159,8 +10285,9 @@
       <c r="H97" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="15" t="s">
         <v>381</v>
       </c>
@@ -10185,8 +10312,9 @@
       <c r="H98" s="15" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="15" t="s">
         <v>381</v>
       </c>
@@ -10211,8 +10339,9 @@
       <c r="H99" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="15" t="s">
         <v>381</v>
       </c>
@@ -10237,8 +10366,9 @@
       <c r="H100" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="15" t="s">
         <v>381</v>
       </c>
@@ -10263,8 +10393,9 @@
       <c r="H101" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="15" t="s">
         <v>381</v>
       </c>
@@ -10289,8 +10420,9 @@
       <c r="H102" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="15" t="s">
         <v>381</v>
       </c>
@@ -10315,8 +10447,9 @@
       <c r="H103" s="15" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="15" t="s">
         <v>381</v>
       </c>
@@ -10341,8 +10474,9 @@
       <c r="H104" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="15" t="s">
         <v>381</v>
       </c>
@@ -10367,8 +10501,9 @@
       <c r="H105" s="15" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="15" t="s">
         <v>381</v>
       </c>
@@ -10393,8 +10528,9 @@
       <c r="H106" s="15" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="15" t="s">
         <v>381</v>
       </c>
@@ -10419,8 +10555,9 @@
       <c r="H107" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="15" t="s">
         <v>384</v>
       </c>
@@ -10445,8 +10582,9 @@
       <c r="H108" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="15" t="s">
         <v>384</v>
       </c>
@@ -10471,8 +10609,9 @@
       <c r="H109" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="15" t="s">
         <v>384</v>
       </c>
@@ -10497,8 +10636,9 @@
       <c r="H110" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="15" t="s">
         <v>384</v>
       </c>
@@ -10523,8 +10663,9 @@
       <c r="H111" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="15" t="s">
         <v>384</v>
       </c>
@@ -10549,8 +10690,9 @@
       <c r="H112" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="15" t="s">
         <v>384</v>
       </c>
@@ -10575,8 +10717,9 @@
       <c r="H113" s="15" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="18"/>
+    </row>
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="15" t="s">
         <v>384</v>
       </c>
@@ -10601,8 +10744,9 @@
       <c r="H114" s="15" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="15" t="s">
         <v>384</v>
       </c>
@@ -10627,8 +10771,9 @@
       <c r="H115" s="15" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="15" t="s">
         <v>384</v>
       </c>
@@ -10653,8 +10798,9 @@
       <c r="H116" s="15" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="15" t="s">
         <v>384</v>
       </c>
@@ -10679,8 +10825,9 @@
       <c r="H117" s="15" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="15" t="s">
         <v>384</v>
       </c>
@@ -10705,8 +10852,9 @@
       <c r="H118" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="15" t="s">
         <v>384</v>
       </c>
@@ -10731,8 +10879,9 @@
       <c r="H119" s="15" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="15" t="s">
         <v>384</v>
       </c>
@@ -10757,8 +10906,9 @@
       <c r="H120" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="15" t="s">
         <v>384</v>
       </c>
@@ -10783,8 +10933,9 @@
       <c r="H121" s="15" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="15" t="s">
         <v>384</v>
       </c>
@@ -10809,8 +10960,9 @@
       <c r="H122" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="18"/>
+    </row>
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="15" t="s">
         <v>388</v>
       </c>
@@ -10835,8 +10987,9 @@
       <c r="H123" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="18"/>
+    </row>
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="15" t="s">
         <v>388</v>
       </c>
@@ -10861,8 +11014,9 @@
       <c r="H124" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="18"/>
+    </row>
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="15" t="s">
         <v>388</v>
       </c>
@@ -10887,8 +11041,9 @@
       <c r="H125" s="15" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="15" t="s">
         <v>388</v>
       </c>
@@ -10913,8 +11068,9 @@
       <c r="H126" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="15" t="s">
         <v>388</v>
       </c>
@@ -10939,8 +11095,9 @@
       <c r="H127" s="15" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="15" t="s">
         <v>388</v>
       </c>
@@ -10965,8 +11122,9 @@
       <c r="H128" s="15" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="15" t="s">
         <v>388</v>
       </c>
@@ -10991,8 +11149,9 @@
       <c r="H129" s="15" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="15" t="s">
         <v>388</v>
       </c>
@@ -11017,8 +11176,9 @@
       <c r="H130" s="15" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="18"/>
+    </row>
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="15" t="s">
         <v>388</v>
       </c>
@@ -11043,8 +11203,9 @@
       <c r="H131" s="15" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="15" t="s">
         <v>388</v>
       </c>
@@ -11069,8 +11230,9 @@
       <c r="H132" s="15" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="18"/>
+    </row>
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="15" t="s">
         <v>388</v>
       </c>
@@ -11095,8 +11257,9 @@
       <c r="H133" s="15" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="15" t="s">
         <v>388</v>
       </c>
@@ -11121,8 +11284,9 @@
       <c r="H134" s="15" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="18"/>
+    </row>
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" s="15" t="s">
         <v>388</v>
       </c>
@@ -11147,8 +11311,9 @@
       <c r="H135" s="15" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="15" t="s">
         <v>388</v>
       </c>
@@ -11173,8 +11338,9 @@
       <c r="H136" s="15" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" s="15" t="s">
         <v>388</v>
       </c>
@@ -11199,8 +11365,9 @@
       <c r="H137" s="15" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="18"/>
+    </row>
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="15" t="s">
         <v>388</v>
       </c>
@@ -11225,8 +11392,9 @@
       <c r="H138" s="15" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="18"/>
+    </row>
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="15" t="s">
         <v>388</v>
       </c>
@@ -11251,8 +11419,9 @@
       <c r="H139" s="15" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="18"/>
+    </row>
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="15" t="s">
         <v>388</v>
       </c>
@@ -11277,8 +11446,9 @@
       <c r="H140" s="15" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="18"/>
+    </row>
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" s="15" t="s">
         <v>388</v>
       </c>
@@ -11303,8 +11473,9 @@
       <c r="H141" s="15" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="15" t="s">
         <v>388</v>
       </c>
@@ -11329,8 +11500,9 @@
       <c r="H142" s="15" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="15" t="s">
         <v>388</v>
       </c>
@@ -11355,8 +11527,9 @@
       <c r="H143" s="15" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="15" t="s">
         <v>388</v>
       </c>
@@ -11381,8 +11554,9 @@
       <c r="H144" s="15" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="18"/>
+    </row>
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="15" t="s">
         <v>388</v>
       </c>
@@ -11407,8 +11581,9 @@
       <c r="H145" s="15" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="18"/>
+    </row>
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="15" t="s">
         <v>391</v>
       </c>
@@ -11433,8 +11608,9 @@
       <c r="H146" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="18"/>
+    </row>
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="15" t="s">
         <v>391</v>
       </c>
@@ -11459,8 +11635,9 @@
       <c r="H147" s="15" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="18"/>
+    </row>
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="15" t="s">
         <v>391</v>
       </c>
@@ -11485,8 +11662,9 @@
       <c r="H148" s="15" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="18"/>
+    </row>
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="15" t="s">
         <v>388</v>
       </c>
@@ -11509,8 +11687,9 @@
       <c r="H149" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="18"/>
+    </row>
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="15" t="s">
         <v>686</v>
       </c>
@@ -11533,8 +11712,9 @@
       <c r="H150" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="18"/>
+    </row>
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="15" t="s">
         <v>686</v>
       </c>
@@ -11557,8 +11737,9 @@
       <c r="H151" s="15" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="18"/>
+    </row>
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="15" t="s">
         <v>686</v>
       </c>
@@ -11581,8 +11762,9 @@
       <c r="H152" s="15" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="18"/>
+    </row>
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="15" t="s">
         <v>686</v>
       </c>
@@ -11605,8 +11787,9 @@
       <c r="H153" s="15" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" s="18"/>
+    </row>
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="15" t="s">
         <v>686</v>
       </c>
@@ -11629,8 +11812,9 @@
       <c r="H154" s="15" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" s="18"/>
+    </row>
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="15" t="s">
         <v>686</v>
       </c>
@@ -11653,8 +11837,9 @@
       <c r="H155" s="15" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" s="18"/>
+    </row>
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="15" t="s">
         <v>686</v>
       </c>
@@ -11677,8 +11862,9 @@
       <c r="H156" s="15" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" s="18"/>
+    </row>
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="15" t="s">
         <v>686</v>
       </c>
@@ -11701,8 +11887,9 @@
       <c r="H157" s="15" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" s="18"/>
+    </row>
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="15" t="s">
         <v>686</v>
       </c>
@@ -11725,8 +11912,9 @@
       <c r="H158" s="15" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" s="18"/>
+    </row>
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="15" t="s">
         <v>686</v>
       </c>
@@ -11749,8 +11937,9 @@
       <c r="H159" s="15" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" s="18"/>
+    </row>
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="15" t="s">
         <v>686</v>
       </c>
@@ -11773,8 +11962,9 @@
       <c r="H160" s="15" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" s="18"/>
+    </row>
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="15" t="s">
         <v>686</v>
       </c>
@@ -11797,8 +11987,9 @@
       <c r="H161" s="15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" s="18"/>
+    </row>
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="15" t="s">
         <v>686</v>
       </c>
@@ -11821,8 +12012,9 @@
       <c r="H162" s="15" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" s="18"/>
+    </row>
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="15" t="s">
         <v>686</v>
       </c>
@@ -11845,8 +12037,9 @@
       <c r="H163" s="15" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" s="18"/>
+    </row>
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="15" t="s">
         <v>686</v>
       </c>
@@ -11869,8 +12062,9 @@
       <c r="H164" s="15" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" s="18"/>
+    </row>
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="15" t="s">
         <v>686</v>
       </c>
@@ -11893,8 +12087,9 @@
       <c r="H165" s="15" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" s="18"/>
+    </row>
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="15" t="s">
         <v>686</v>
       </c>
@@ -11917,8 +12112,9 @@
       <c r="H166" s="15" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" s="18"/>
+    </row>
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="15" t="s">
         <v>686</v>
       </c>
@@ -11941,8 +12137,9 @@
       <c r="H167" s="15" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" s="18"/>
+    </row>
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="15" t="s">
         <v>686</v>
       </c>
@@ -11965,8 +12162,9 @@
       <c r="H168" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" s="18"/>
+    </row>
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="15" t="s">
         <v>686</v>
       </c>
@@ -11989,8 +12187,9 @@
       <c r="H169" s="15" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" s="18"/>
+    </row>
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="15" t="s">
         <v>686</v>
       </c>
@@ -12013,8 +12212,9 @@
       <c r="H170" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" s="18"/>
+    </row>
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="15" t="s">
         <v>686</v>
       </c>
@@ -12037,8 +12237,9 @@
       <c r="H171" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" s="18"/>
+    </row>
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="15" t="s">
         <v>686</v>
       </c>
@@ -12061,8 +12262,9 @@
       <c r="H172" s="15" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" s="18"/>
+    </row>
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="15" t="s">
         <v>686</v>
       </c>
@@ -12085,8 +12287,9 @@
       <c r="H173" s="15" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" s="18"/>
+    </row>
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="15" t="s">
         <v>686</v>
       </c>
@@ -12109,8 +12312,9 @@
       <c r="H174" s="15" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" s="18"/>
+    </row>
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="15" t="s">
         <v>686</v>
       </c>
@@ -12133,8 +12337,9 @@
       <c r="H175" s="15" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" s="18"/>
+    </row>
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="15" t="s">
         <v>686</v>
       </c>
@@ -12157,8 +12362,9 @@
       <c r="H176" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" s="18"/>
+    </row>
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="15" t="s">
         <v>686</v>
       </c>
@@ -12181,8 +12387,9 @@
       <c r="H177" s="15" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" s="18"/>
+    </row>
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="15" t="s">
         <v>686</v>
       </c>
@@ -12205,8 +12412,9 @@
       <c r="H178" s="15" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" s="18"/>
+    </row>
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="15" t="s">
         <v>686</v>
       </c>
@@ -12229,8 +12437,9 @@
       <c r="H179" s="15" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" s="18"/>
+    </row>
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="15" t="s">
         <v>686</v>
       </c>
@@ -12253,8 +12462,9 @@
       <c r="H180" s="15" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" s="18"/>
+    </row>
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="15" t="s">
         <v>686</v>
       </c>
@@ -12277,8 +12487,9 @@
       <c r="H181" s="15" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" s="18"/>
+    </row>
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="15" t="s">
         <v>686</v>
       </c>
@@ -12301,8 +12512,9 @@
       <c r="H182" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" s="18"/>
+    </row>
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="15" t="s">
         <v>686</v>
       </c>
@@ -12325,8 +12537,9 @@
       <c r="H183" s="15" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" s="18"/>
+    </row>
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="15" t="s">
         <v>686</v>
       </c>
@@ -12349,8 +12562,9 @@
       <c r="H184" s="15" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" s="18"/>
+    </row>
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="15" t="s">
         <v>686</v>
       </c>
@@ -12373,8 +12587,9 @@
       <c r="H185" s="15" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" s="18"/>
+    </row>
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="15" t="s">
         <v>686</v>
       </c>
@@ -12397,8 +12612,9 @@
       <c r="H186" s="15" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" s="18"/>
+    </row>
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="15" t="s">
         <v>686</v>
       </c>
@@ -12421,8 +12637,9 @@
       <c r="H187" s="15" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" s="18"/>
+    </row>
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="15" t="s">
         <v>708</v>
       </c>
@@ -12445,8 +12662,9 @@
       <c r="H188" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" s="18"/>
+    </row>
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="15" t="s">
         <v>708</v>
       </c>
@@ -12469,8 +12687,9 @@
       <c r="H189" s="15" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" s="18"/>
+    </row>
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="15" t="s">
         <v>708</v>
       </c>
@@ -12493,8 +12712,9 @@
       <c r="H190" s="15" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" s="18"/>
+    </row>
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="15" t="s">
         <v>708</v>
       </c>
@@ -12517,8 +12737,9 @@
       <c r="H191" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" s="18"/>
+    </row>
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="15" t="s">
         <v>708</v>
       </c>
@@ -12541,8 +12762,9 @@
       <c r="H192" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" s="18"/>
+    </row>
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" s="15" t="s">
         <v>708</v>
       </c>
@@ -12565,8 +12787,9 @@
       <c r="H193" s="15" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" s="18"/>
+    </row>
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" s="15" t="s">
         <v>708</v>
       </c>
@@ -12589,8 +12812,9 @@
       <c r="H194" s="15" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" s="18"/>
+    </row>
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="15" t="s">
         <v>708</v>
       </c>
@@ -12613,8 +12837,9 @@
       <c r="H195" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" s="18"/>
+    </row>
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="15" t="s">
         <v>708</v>
       </c>
@@ -12637,8 +12862,9 @@
       <c r="H196" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" s="18"/>
+    </row>
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="15" t="s">
         <v>708</v>
       </c>
@@ -12661,8 +12887,9 @@
       <c r="H197" s="15" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" s="18"/>
+    </row>
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="15" t="s">
         <v>708</v>
       </c>
@@ -12685,8 +12912,9 @@
       <c r="H198" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" s="18"/>
+    </row>
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="15" t="s">
         <v>708</v>
       </c>
@@ -12709,8 +12937,9 @@
       <c r="H199" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" s="18"/>
+    </row>
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="15" t="s">
         <v>708</v>
       </c>
@@ -12733,8 +12962,9 @@
       <c r="H200" s="15" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" s="18"/>
+    </row>
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" s="15" t="s">
         <v>708</v>
       </c>
@@ -12757,8 +12987,9 @@
       <c r="H201" s="15" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" s="18"/>
+    </row>
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="15" t="s">
         <v>708</v>
       </c>
@@ -12781,8 +13012,9 @@
       <c r="H202" s="15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" s="18"/>
+    </row>
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" s="15" t="s">
         <v>708</v>
       </c>
@@ -12805,8 +13037,9 @@
       <c r="H203" s="15" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" s="18"/>
+    </row>
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" s="15" t="s">
         <v>708</v>
       </c>
@@ -12829,8 +13062,9 @@
       <c r="H204" s="15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" s="18"/>
+    </row>
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" s="15" t="s">
         <v>708</v>
       </c>
@@ -12853,8 +13087,9 @@
       <c r="H205" s="15" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" s="18"/>
+    </row>
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" s="15" t="s">
         <v>708</v>
       </c>
@@ -12877,8 +13112,9 @@
       <c r="H206" s="15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" s="18"/>
+    </row>
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="15" t="s">
         <v>732</v>
       </c>
@@ -12901,8 +13137,9 @@
       <c r="H207" s="15" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" s="18"/>
+    </row>
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" s="15" t="s">
         <v>732</v>
       </c>
@@ -12925,8 +13162,9 @@
       <c r="H208" s="15" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" s="18"/>
+    </row>
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209" s="15" t="s">
         <v>732</v>
       </c>
@@ -12949,8 +13187,9 @@
       <c r="H209" s="15" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" s="18"/>
+    </row>
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" s="15" t="s">
         <v>732</v>
       </c>
@@ -12973,8 +13212,9 @@
       <c r="H210" s="15" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" s="18"/>
+    </row>
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="15" t="s">
         <v>732</v>
       </c>
@@ -12997,8 +13237,9 @@
       <c r="H211" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211" s="18"/>
+    </row>
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" s="15" t="s">
         <v>732</v>
       </c>
@@ -13021,8 +13262,9 @@
       <c r="H212" s="15" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" s="18"/>
+    </row>
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" s="15" t="s">
         <v>739</v>
       </c>
@@ -13045,8 +13287,9 @@
       <c r="H213" s="15" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" s="18"/>
+    </row>
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" s="15" t="s">
         <v>641</v>
       </c>
@@ -13069,8 +13312,9 @@
       <c r="H214" s="15" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" s="18"/>
+    </row>
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" s="15" t="s">
         <v>641</v>
       </c>
@@ -13093,8 +13337,9 @@
       <c r="H215" s="15" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" s="18"/>
+    </row>
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" s="15" t="s">
         <v>648</v>
       </c>
@@ -13117,8 +13362,9 @@
       <c r="H216" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" s="18"/>
+    </row>
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" s="15" t="s">
         <v>648</v>
       </c>
@@ -13141,8 +13387,9 @@
       <c r="H217" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" s="18"/>
+    </row>
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" s="15" t="s">
         <v>648</v>
       </c>
@@ -13165,8 +13412,9 @@
       <c r="H218" s="15" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" s="18"/>
+    </row>
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219" s="15" t="s">
         <v>648</v>
       </c>
@@ -13189,8 +13437,9 @@
       <c r="H219" s="15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" s="18"/>
+    </row>
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220" s="15" t="s">
         <v>648</v>
       </c>
@@ -13213,8 +13462,9 @@
       <c r="H220" s="15" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" s="18"/>
+    </row>
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221" s="15" t="s">
         <v>648</v>
       </c>
@@ -13237,8 +13487,9 @@
       <c r="H221" s="15" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" s="18"/>
+    </row>
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222" s="15" t="s">
         <v>648</v>
       </c>
@@ -13261,8 +13512,9 @@
       <c r="H222" s="15" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" s="18"/>
+    </row>
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223" s="15" t="s">
         <v>648</v>
       </c>
@@ -13285,8 +13537,9 @@
       <c r="H223" s="15" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" s="18"/>
+    </row>
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224" s="15" t="s">
         <v>648</v>
       </c>
@@ -13309,8 +13562,9 @@
       <c r="H224" s="15" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" s="18"/>
+    </row>
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="15" t="s">
         <v>648</v>
       </c>
@@ -13333,8 +13587,9 @@
       <c r="H225" s="15" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" s="18"/>
+    </row>
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="15" t="s">
         <v>648</v>
       </c>
@@ -13357,8 +13612,9 @@
       <c r="H226" s="15" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" s="18"/>
+    </row>
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="15" t="s">
         <v>648</v>
       </c>
@@ -13381,8 +13637,9 @@
       <c r="H227" s="15" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" s="18"/>
+    </row>
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="15" t="s">
         <v>648</v>
       </c>
@@ -13405,8 +13662,9 @@
       <c r="H228" s="15" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" s="18"/>
+    </row>
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="15" t="s">
         <v>648</v>
       </c>
@@ -13429,8 +13687,9 @@
       <c r="H229" s="15" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" s="18"/>
+    </row>
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="15" t="s">
         <v>648</v>
       </c>
@@ -13453,8 +13712,9 @@
       <c r="H230" s="15" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230" s="18"/>
+    </row>
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="15" t="s">
         <v>648</v>
       </c>
@@ -13477,8 +13737,9 @@
       <c r="H231" s="15" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" s="18"/>
+    </row>
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="15" t="s">
         <v>648</v>
       </c>
@@ -13501,8 +13762,9 @@
       <c r="H232" s="15" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" s="18"/>
+    </row>
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="15" t="s">
         <v>648</v>
       </c>
@@ -13525,8 +13787,9 @@
       <c r="H233" s="15" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" s="18"/>
+    </row>
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="15" t="s">
         <v>648</v>
       </c>
@@ -13549,8 +13812,9 @@
       <c r="H234" s="15" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" s="18"/>
+    </row>
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="15" t="s">
         <v>648</v>
       </c>
@@ -13573,8 +13837,9 @@
       <c r="H235" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" s="18"/>
+    </row>
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="15" t="s">
         <v>648</v>
       </c>
@@ -13597,8 +13862,9 @@
       <c r="H236" s="15" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236" s="18"/>
+    </row>
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="15" t="s">
         <v>648</v>
       </c>
@@ -13621,8 +13887,9 @@
       <c r="H237" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237" s="18"/>
+    </row>
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="15" t="s">
         <v>648</v>
       </c>
@@ -13645,8 +13912,9 @@
       <c r="H238" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238" s="18"/>
+    </row>
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="15" t="s">
         <v>648</v>
       </c>
@@ -13669,8 +13937,9 @@
       <c r="H239" s="15" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" s="18"/>
+    </row>
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="15" t="s">
         <v>648</v>
       </c>
@@ -13693,8 +13962,9 @@
       <c r="H240" s="15" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" s="18"/>
+    </row>
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="15" t="s">
         <v>648</v>
       </c>
@@ -13717,8 +13987,9 @@
       <c r="H241" s="15" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241" s="18"/>
+    </row>
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="15" t="s">
         <v>648</v>
       </c>
@@ -13741,8 +14012,9 @@
       <c r="H242" s="15" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" s="18"/>
+    </row>
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="15" t="s">
         <v>648</v>
       </c>
@@ -13765,8 +14037,9 @@
       <c r="H243" s="15" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" s="18"/>
+    </row>
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="15" t="s">
         <v>783</v>
       </c>
@@ -13789,8 +14062,9 @@
       <c r="H244" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" s="18"/>
+    </row>
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="15" t="s">
         <v>783</v>
       </c>
@@ -13813,8 +14087,9 @@
       <c r="H245" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" s="18"/>
+    </row>
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="15" t="s">
         <v>783</v>
       </c>
@@ -13837,8 +14112,9 @@
       <c r="H246" s="15" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" s="18"/>
+    </row>
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="15" t="s">
         <v>783</v>
       </c>
@@ -13861,8 +14137,9 @@
       <c r="H247" s="15" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" s="18"/>
+    </row>
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="15" t="s">
         <v>783</v>
       </c>
@@ -13885,8 +14162,9 @@
       <c r="H248" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" s="18"/>
+    </row>
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="15" t="s">
         <v>783</v>
       </c>
@@ -13909,8 +14187,9 @@
       <c r="H249" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249" s="18"/>
+    </row>
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="15" t="s">
         <v>783</v>
       </c>
@@ -13933,8 +14212,9 @@
       <c r="H250" s="15" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250" s="18"/>
+    </row>
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="15" t="s">
         <v>783</v>
       </c>
@@ -13957,8 +14237,9 @@
       <c r="H251" s="15" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251" s="18"/>
+    </row>
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="15" t="s">
         <v>783</v>
       </c>
@@ -13981,8 +14262,9 @@
       <c r="H252" s="15" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="I252" s="18"/>
+    </row>
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="15" t="s">
         <v>783</v>
       </c>
@@ -14005,8 +14287,9 @@
       <c r="H253" s="15" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="I253" s="18"/>
+    </row>
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="15" t="s">
         <v>783</v>
       </c>
@@ -14029,8 +14312,9 @@
       <c r="H254" s="15" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254" s="18"/>
+    </row>
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="15" t="s">
         <v>783</v>
       </c>
@@ -14053,8 +14337,9 @@
       <c r="H255" s="15" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="I255" s="18"/>
+    </row>
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="15" t="s">
         <v>783</v>
       </c>
@@ -14077,8 +14362,9 @@
       <c r="H256" s="15" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="I256" s="18"/>
+    </row>
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257" s="15" t="s">
         <v>783</v>
       </c>
@@ -14101,8 +14387,9 @@
       <c r="H257" s="15" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="I257" s="18"/>
+    </row>
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="15" t="s">
         <v>783</v>
       </c>
@@ -14125,8 +14412,9 @@
       <c r="H258" s="15" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="I258" s="18"/>
+    </row>
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="15" t="s">
         <v>783</v>
       </c>
@@ -14149,8 +14437,9 @@
       <c r="H259" s="15" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="I259" s="18"/>
+    </row>
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" s="15" t="s">
         <v>783</v>
       </c>
@@ -14173,8 +14462,9 @@
       <c r="H260" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="I260" s="18"/>
+    </row>
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" s="15" t="s">
         <v>783</v>
       </c>
@@ -14197,8 +14487,9 @@
       <c r="H261" s="15" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="I261" s="18"/>
+    </row>
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" s="15" t="s">
         <v>783</v>
       </c>
@@ -14221,8 +14512,9 @@
       <c r="H262" s="15" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
+      <c r="I262" s="18"/>
+    </row>
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="15" t="s">
         <v>783</v>
       </c>
@@ -14245,8 +14537,9 @@
       <c r="H263" s="15" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="I263" s="18"/>
+    </row>
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="15" t="s">
         <v>783</v>
       </c>
@@ -14269,8 +14562,9 @@
       <c r="H264" s="15" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="I264" s="18"/>
+    </row>
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" s="15" t="s">
         <v>783</v>
       </c>
@@ -14293,8 +14587,9 @@
       <c r="H265" s="15" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="I265" s="18"/>
+    </row>
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" s="15" t="s">
         <v>783</v>
       </c>
@@ -14317,8 +14612,9 @@
       <c r="H266" s="15" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="I266" s="18"/>
+    </row>
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" s="15" t="s">
         <v>783</v>
       </c>
@@ -14341,8 +14637,9 @@
       <c r="H267" s="15" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="I267" s="18"/>
+    </row>
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="15" t="s">
         <v>783</v>
       </c>
@@ -14365,8 +14662,9 @@
       <c r="H268" s="15" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="I268" s="18"/>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" s="18" t="s">
         <v>562</v>
       </c>
@@ -14389,8 +14687,9 @@
       <c r="H269" s="18" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="I269" s="18"/>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" s="18" t="s">
         <v>562</v>
       </c>
@@ -14413,8 +14712,9 @@
       <c r="H270" s="18" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270" s="18"/>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" s="18" t="s">
         <v>562</v>
       </c>
@@ -14437,8 +14737,9 @@
       <c r="H271" s="18" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="I271" s="18"/>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" s="18" t="s">
         <v>562</v>
       </c>
@@ -14461,8 +14762,9 @@
       <c r="H272" s="18" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="I272" s="18"/>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" s="18" t="s">
         <v>562</v>
       </c>
@@ -14485,8 +14787,9 @@
       <c r="H273" s="18" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="I273" s="18"/>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" s="18" t="s">
         <v>562</v>
       </c>
@@ -14509,8 +14812,9 @@
       <c r="H274" s="18" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="I274" s="18"/>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" s="18" t="s">
         <v>562</v>
       </c>
@@ -14533,8 +14837,9 @@
       <c r="H275" s="18" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="I275" s="18"/>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" s="18" t="s">
         <v>562</v>
       </c>
@@ -14557,8 +14862,9 @@
       <c r="H276" s="18" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="I276" s="18"/>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" s="18" t="s">
         <v>562</v>
       </c>
@@ -14581,8 +14887,9 @@
       <c r="H277" s="18" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="I277" s="18"/>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" s="18" t="s">
         <v>562</v>
       </c>
@@ -14605,8 +14912,9 @@
       <c r="H278" s="18" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="I278" s="18"/>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" s="18" t="s">
         <v>562</v>
       </c>
@@ -14629,8 +14937,9 @@
       <c r="H279" s="18" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="I279" s="18"/>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" s="18" t="s">
         <v>562</v>
       </c>
@@ -14653,8 +14962,9 @@
       <c r="H280" s="18" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="I280" s="18"/>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" s="18" t="s">
         <v>562</v>
       </c>
@@ -14677,8 +14987,9 @@
       <c r="H281" s="18" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="I281" s="18"/>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" s="18" t="s">
         <v>562</v>
       </c>
@@ -14701,8 +15012,9 @@
       <c r="H282" s="18" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="I282" s="18"/>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" s="18" t="s">
         <v>562</v>
       </c>
@@ -14725,8 +15037,9 @@
       <c r="H283" s="18" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="I283" s="18"/>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" s="18" t="s">
         <v>562</v>
       </c>
@@ -14749,8 +15062,9 @@
       <c r="H284" s="18" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="I284" s="18"/>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" s="18" t="s">
         <v>562</v>
       </c>
@@ -14773,8 +15087,9 @@
       <c r="H285" s="18" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="I285" s="18"/>
+    </row>
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="18" t="s">
         <v>815</v>
       </c>
@@ -14797,8 +15112,9 @@
       <c r="H286" s="18" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="I286" s="18"/>
+    </row>
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" s="18" t="s">
         <v>815</v>
       </c>
@@ -14821,8 +15137,9 @@
       <c r="H287" s="18" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287" s="18"/>
+    </row>
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288" s="18" t="s">
         <v>815</v>
       </c>
@@ -14845,8 +15162,9 @@
       <c r="H288" s="18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I288" s="18"/>
+    </row>
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289" s="18" t="s">
         <v>815</v>
       </c>
@@ -14869,8 +15187,9 @@
       <c r="H289" s="18" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289" s="18"/>
+    </row>
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290" s="18" t="s">
         <v>815</v>
       </c>
@@ -14893,8 +15212,9 @@
       <c r="H290" s="18" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290" s="18"/>
+    </row>
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="18" t="s">
         <v>498</v>
       </c>
@@ -14917,8 +15237,9 @@
       <c r="H291" s="18" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291" s="18"/>
+    </row>
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" s="17" t="s">
         <v>498</v>
       </c>
@@ -14941,8 +15262,9 @@
       <c r="H292" s="17" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="I292" s="18"/>
+    </row>
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" s="18" t="s">
         <v>498</v>
       </c>
@@ -14965,8 +15287,9 @@
       <c r="H293" s="18" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293" s="18"/>
+    </row>
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" s="18" t="s">
         <v>498</v>
       </c>
@@ -14989,8 +15312,9 @@
       <c r="H294" s="18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="I294" s="18"/>
+    </row>
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295" s="18" t="s">
         <v>498</v>
       </c>
@@ -15013,8 +15337,9 @@
       <c r="H295" s="18" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="I295" s="18"/>
+    </row>
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296" s="18" t="s">
         <v>498</v>
       </c>
@@ -15037,8 +15362,9 @@
       <c r="H296" s="18" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="I296" s="18"/>
+    </row>
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297" s="18" t="s">
         <v>498</v>
       </c>
@@ -15061,8 +15387,9 @@
       <c r="H297" s="18" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="I297" s="18"/>
+    </row>
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298" s="18" t="s">
         <v>498</v>
       </c>
@@ -15085,8 +15412,9 @@
       <c r="H298" s="18" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="I298" s="18"/>
+    </row>
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299" s="18" t="s">
         <v>498</v>
       </c>
@@ -15109,8 +15437,9 @@
       <c r="H299" s="18" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="I299" s="18"/>
+    </row>
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300" s="18" t="s">
         <v>498</v>
       </c>
@@ -15133,8 +15462,9 @@
       <c r="H300" s="18" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="I300" s="18"/>
+    </row>
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301" s="18" t="s">
         <v>498</v>
       </c>
@@ -15157,8 +15487,9 @@
       <c r="H301" s="18" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="I301" s="18"/>
+    </row>
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302" s="18" t="s">
         <v>498</v>
       </c>
@@ -15181,8 +15512,9 @@
       <c r="H302" s="18" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="I302" s="18"/>
+    </row>
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303" s="18" t="s">
         <v>498</v>
       </c>
@@ -15205,8 +15537,9 @@
       <c r="H303" s="18" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="I303" s="18"/>
+    </row>
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304" s="18" t="s">
         <v>498</v>
       </c>
@@ -15229,8 +15562,9 @@
       <c r="H304" s="18" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="I304" s="18"/>
+    </row>
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305" s="18" t="s">
         <v>498</v>
       </c>
@@ -15253,8 +15587,9 @@
       <c r="H305" s="18" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="I305" s="18"/>
+    </row>
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" s="18" t="s">
         <v>498</v>
       </c>
@@ -15277,8 +15612,9 @@
       <c r="H306" s="18" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="I306" s="18"/>
+    </row>
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" s="18" t="s">
         <v>498</v>
       </c>
@@ -15301,8 +15637,9 @@
       <c r="H307" s="18" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="I307" s="18"/>
+    </row>
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308" s="18" t="s">
         <v>498</v>
       </c>
@@ -15325,8 +15662,9 @@
       <c r="H308" s="18" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="I308" s="18"/>
+    </row>
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309" s="18" t="s">
         <v>498</v>
       </c>
@@ -15349,8 +15687,9 @@
       <c r="H309" s="18" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="I309" s="18"/>
+    </row>
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310" s="18" t="s">
         <v>498</v>
       </c>
@@ -15373,8 +15712,9 @@
       <c r="H310" s="18" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="I310" s="18"/>
+    </row>
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311" s="18" t="s">
         <v>498</v>
       </c>
@@ -15397,8 +15737,9 @@
       <c r="H311" s="18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
+      <c r="I311" s="18"/>
+    </row>
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312" s="18" t="s">
         <v>498</v>
       </c>
@@ -15421,8 +15762,9 @@
       <c r="H312" s="18" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="I312" s="18"/>
+    </row>
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" s="18" t="s">
         <v>498</v>
       </c>
@@ -15445,8 +15787,9 @@
       <c r="H313" s="18" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="I313" s="18"/>
+    </row>
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" s="17" t="s">
         <v>498</v>
       </c>
@@ -15469,8 +15812,9 @@
       <c r="H314" s="17" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="I314" s="18"/>
+    </row>
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315" s="17" t="s">
         <v>499</v>
       </c>
@@ -15493,8 +15837,9 @@
       <c r="H315" s="17" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I315" s="18"/>
+    </row>
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316" s="17" t="s">
         <v>499</v>
       </c>
@@ -15517,8 +15862,9 @@
       <c r="H316" s="17" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="I316" s="18"/>
+    </row>
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317" s="17" t="s">
         <v>499</v>
       </c>
@@ -15541,8 +15887,9 @@
       <c r="H317" s="17" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="I317" s="18"/>
+    </row>
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318" s="17" t="s">
         <v>499</v>
       </c>
@@ -15565,8 +15912,9 @@
       <c r="H318" s="17" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="319" spans="1:8">
+      <c r="I318" s="18"/>
+    </row>
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319" s="17" t="s">
         <v>499</v>
       </c>
@@ -15589,8 +15937,9 @@
       <c r="H319" s="17" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="I319" s="18"/>
+    </row>
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="17" t="s">
         <v>499</v>
       </c>
@@ -15613,8 +15962,9 @@
       <c r="H320" s="17" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="I320" s="18"/>
+    </row>
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="17" t="s">
         <v>499</v>
       </c>
@@ -15637,8 +15987,9 @@
       <c r="H321" s="17" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="I321" s="18"/>
+    </row>
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322" s="17" t="s">
         <v>499</v>
       </c>
@@ -15661,8 +16012,9 @@
       <c r="H322" s="17" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322" s="18"/>
+    </row>
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323" s="17" t="s">
         <v>499</v>
       </c>
@@ -15685,8 +16037,9 @@
       <c r="H323" s="17" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323" s="18"/>
+    </row>
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324" s="17" t="s">
         <v>499</v>
       </c>
@@ -15709,8 +16062,9 @@
       <c r="H324" s="17" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324" s="18"/>
+    </row>
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" s="17" t="s">
         <v>499</v>
       </c>
@@ -15733,8 +16087,9 @@
       <c r="H325" s="17" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="I325" s="18"/>
+    </row>
+    <row r="326" spans="1:9" hidden="1">
       <c r="A326" s="17" t="s">
         <v>499</v>
       </c>
@@ -15757,8 +16112,9 @@
       <c r="H326" s="17" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="I326" s="18"/>
+    </row>
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327" s="17" t="s">
         <v>499</v>
       </c>
@@ -15781,8 +16137,9 @@
       <c r="H327" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="I327" s="18"/>
+    </row>
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328" s="17" t="s">
         <v>499</v>
       </c>
@@ -15805,8 +16162,9 @@
       <c r="H328" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="I328" s="18"/>
+    </row>
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="17" t="s">
         <v>499</v>
       </c>
@@ -15829,8 +16187,9 @@
       <c r="H329" s="17" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="I329" s="18"/>
+    </row>
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330" s="17" t="s">
         <v>499</v>
       </c>
@@ -15853,8 +16212,9 @@
       <c r="H330" s="17" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="I330" s="18"/>
+    </row>
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331" s="17" t="s">
         <v>499</v>
       </c>
@@ -15877,8 +16237,9 @@
       <c r="H331" s="17" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="I331" s="18"/>
+    </row>
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="17" t="s">
         <v>499</v>
       </c>
@@ -15901,8 +16262,9 @@
       <c r="H332" s="17" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="I332" s="18"/>
+    </row>
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333" s="17" t="s">
         <v>499</v>
       </c>
@@ -15925,8 +16287,9 @@
       <c r="H333" s="17" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="I333" s="18"/>
+    </row>
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334" s="17" t="s">
         <v>499</v>
       </c>
@@ -15949,8 +16312,9 @@
       <c r="H334" s="17" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="I334" s="18"/>
+    </row>
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335" s="17" t="s">
         <v>499</v>
       </c>
@@ -15973,8 +16337,9 @@
       <c r="H335" s="17" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="I335" s="18"/>
+    </row>
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336" s="17" t="s">
         <v>499</v>
       </c>
@@ -15997,8 +16362,9 @@
       <c r="H336" s="17" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="I336" s="18"/>
+    </row>
+    <row r="337" spans="1:9" hidden="1">
       <c r="A337" s="17" t="s">
         <v>499</v>
       </c>
@@ -16021,8 +16387,9 @@
       <c r="H337" s="17" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="I337" s="18"/>
+    </row>
+    <row r="338" spans="1:9" hidden="1">
       <c r="A338" s="17" t="s">
         <v>499</v>
       </c>
@@ -16045,8 +16412,9 @@
       <c r="H338" s="17" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="I338" s="18"/>
+    </row>
+    <row r="339" spans="1:9" hidden="1">
       <c r="A339" s="17" t="s">
         <v>499</v>
       </c>
@@ -16069,8 +16437,9 @@
       <c r="H339" s="17" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="I339" s="18"/>
+    </row>
+    <row r="340" spans="1:9" hidden="1">
       <c r="A340" s="17" t="s">
         <v>499</v>
       </c>
@@ -16093,8 +16462,9 @@
       <c r="H340" s="17" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="I340" s="18"/>
+    </row>
+    <row r="341" spans="1:9" hidden="1">
       <c r="A341" s="17" t="s">
         <v>499</v>
       </c>
@@ -16117,8 +16487,9 @@
       <c r="H341" s="17" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="I341" s="18"/>
+    </row>
+    <row r="342" spans="1:9" hidden="1">
       <c r="A342" s="17" t="s">
         <v>499</v>
       </c>
@@ -16141,8 +16512,9 @@
       <c r="H342" s="17" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="I342" s="18"/>
+    </row>
+    <row r="343" spans="1:9" hidden="1">
       <c r="A343" s="17" t="s">
         <v>499</v>
       </c>
@@ -16165,8 +16537,9 @@
       <c r="H343" s="17" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="I343" s="18"/>
+    </row>
+    <row r="344" spans="1:9" hidden="1">
       <c r="A344" s="17" t="s">
         <v>499</v>
       </c>
@@ -16189,8 +16562,9 @@
       <c r="H344" s="17" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="I344" s="18"/>
+    </row>
+    <row r="345" spans="1:9" hidden="1">
       <c r="A345" s="17" t="s">
         <v>499</v>
       </c>
@@ -16213,8 +16587,9 @@
       <c r="H345" s="17" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="I345" s="18"/>
+    </row>
+    <row r="346" spans="1:9" hidden="1">
       <c r="A346" s="17" t="s">
         <v>499</v>
       </c>
@@ -16237,8 +16612,9 @@
       <c r="H346" s="17" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="I346" s="18"/>
+    </row>
+    <row r="347" spans="1:9" hidden="1">
       <c r="A347" s="17" t="s">
         <v>499</v>
       </c>
@@ -16261,8 +16637,9 @@
       <c r="H347" s="17" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="I347" s="18"/>
+    </row>
+    <row r="348" spans="1:9" hidden="1">
       <c r="A348" s="17" t="s">
         <v>499</v>
       </c>
@@ -16285,8 +16662,9 @@
       <c r="H348" s="17" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="I348" s="18"/>
+    </row>
+    <row r="349" spans="1:9" hidden="1">
       <c r="A349" s="17" t="s">
         <v>499</v>
       </c>
@@ -16309,8 +16687,9 @@
       <c r="H349" s="17" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="I349" s="18"/>
+    </row>
+    <row r="350" spans="1:9" hidden="1">
       <c r="A350" s="17" t="s">
         <v>499</v>
       </c>
@@ -16333,8 +16712,9 @@
       <c r="H350" s="17" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="I350" s="18"/>
+    </row>
+    <row r="351" spans="1:9" hidden="1">
       <c r="A351" s="17" t="s">
         <v>857</v>
       </c>
@@ -16357,8 +16737,9 @@
       <c r="H351" s="17" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="I351" s="18"/>
+    </row>
+    <row r="352" spans="1:9" hidden="1">
       <c r="A352" s="17" t="s">
         <v>857</v>
       </c>
@@ -16381,8 +16762,9 @@
       <c r="H352" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="I352" s="18"/>
+    </row>
+    <row r="353" spans="1:9" hidden="1">
       <c r="A353" s="17" t="s">
         <v>857</v>
       </c>
@@ -16405,8 +16787,9 @@
       <c r="H353" s="17" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="I353" s="18"/>
+    </row>
+    <row r="354" spans="1:9" hidden="1">
       <c r="A354" s="17" t="s">
         <v>857</v>
       </c>
@@ -16429,8 +16812,9 @@
       <c r="H354" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="I354" s="18"/>
+    </row>
+    <row r="355" spans="1:9" hidden="1">
       <c r="A355" s="17" t="s">
         <v>857</v>
       </c>
@@ -16453,8 +16837,9 @@
       <c r="H355" s="17" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="I355" s="18"/>
+    </row>
+    <row r="356" spans="1:9" hidden="1">
       <c r="A356" s="17" t="s">
         <v>857</v>
       </c>
@@ -16477,8 +16862,9 @@
       <c r="H356" s="17" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="I356" s="18"/>
+    </row>
+    <row r="357" spans="1:9" hidden="1">
       <c r="A357" s="17" t="s">
         <v>857</v>
       </c>
@@ -16501,8 +16887,9 @@
       <c r="H357" s="17" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="I357" s="18"/>
+    </row>
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="17" t="s">
         <v>857</v>
       </c>
@@ -16525,8 +16912,9 @@
       <c r="H358" s="17" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="I358" s="18"/>
+    </row>
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="17" t="s">
         <v>857</v>
       </c>
@@ -16549,8 +16937,9 @@
       <c r="H359" s="17" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="I359" s="18"/>
+    </row>
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360" s="17" t="s">
         <v>857</v>
       </c>
@@ -16573,8 +16962,9 @@
       <c r="H360" s="17" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="I360" s="18"/>
+    </row>
+    <row r="361" spans="1:9" hidden="1">
       <c r="A361" s="17" t="s">
         <v>857</v>
       </c>
@@ -16597,8 +16987,9 @@
       <c r="H361" s="17" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="I361" s="18"/>
+    </row>
+    <row r="362" spans="1:9" hidden="1">
       <c r="A362" s="17" t="s">
         <v>857</v>
       </c>
@@ -16621,8 +17012,9 @@
       <c r="H362" s="17" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="I362" s="18"/>
+    </row>
+    <row r="363" spans="1:9" hidden="1">
       <c r="A363" s="17" t="s">
         <v>857</v>
       </c>
@@ -16645,8 +17037,9 @@
       <c r="H363" s="17" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
+      <c r="I363" s="18"/>
+    </row>
+    <row r="364" spans="1:9" hidden="1">
       <c r="A364" s="17" t="s">
         <v>857</v>
       </c>
@@ -16669,8 +17062,9 @@
       <c r="H364" s="17" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="I364" s="18"/>
+    </row>
+    <row r="365" spans="1:9" hidden="1">
       <c r="A365" s="17" t="s">
         <v>857</v>
       </c>
@@ -16693,8 +17087,9 @@
       <c r="H365" s="17" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="I365" s="18"/>
+    </row>
+    <row r="366" spans="1:9" hidden="1">
       <c r="A366" s="17" t="s">
         <v>857</v>
       </c>
@@ -16717,8 +17112,9 @@
       <c r="H366" s="18" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
+      <c r="I366" s="18"/>
+    </row>
+    <row r="367" spans="1:9" hidden="1">
       <c r="A367" s="17" t="s">
         <v>857</v>
       </c>
@@ -16741,8 +17137,9 @@
       <c r="H367" s="17" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="368" spans="1:8">
+      <c r="I367" s="18"/>
+    </row>
+    <row r="368" spans="1:9" hidden="1">
       <c r="A368" s="17" t="s">
         <v>857</v>
       </c>
@@ -16765,8 +17162,9 @@
       <c r="H368" s="17" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
+      <c r="I368" s="18"/>
+    </row>
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="17" t="s">
         <v>857</v>
       </c>
@@ -16789,8 +17187,9 @@
       <c r="H369" s="17" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
+      <c r="I369" s="18"/>
+    </row>
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="17" t="s">
         <v>857</v>
       </c>
@@ -16813,8 +17212,9 @@
       <c r="H370" s="17" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
+      <c r="I370" s="18"/>
+    </row>
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="17" t="s">
         <v>857</v>
       </c>
@@ -16837,8 +17237,9 @@
       <c r="H371" s="17" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="372" spans="1:8">
+      <c r="I371" s="18"/>
+    </row>
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="17" t="s">
         <v>857</v>
       </c>
@@ -16861,8 +17262,9 @@
       <c r="H372" s="17" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
+      <c r="I372" s="18"/>
+    </row>
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="17" t="s">
         <v>857</v>
       </c>
@@ -16885,8 +17287,9 @@
       <c r="H373" s="17" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
+      <c r="I373" s="18"/>
+    </row>
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="17" t="s">
         <v>857</v>
       </c>
@@ -16909,8 +17312,9 @@
       <c r="H374" s="17" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="375" spans="1:8">
+      <c r="I374" s="18"/>
+    </row>
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375" s="17" t="s">
         <v>857</v>
       </c>
@@ -16933,8 +17337,9 @@
       <c r="H375" s="17" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="376" spans="1:8">
+      <c r="I375" s="18"/>
+    </row>
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" s="17" t="s">
         <v>857</v>
       </c>
@@ -16957,8 +17362,9 @@
       <c r="H376" s="17" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="377" spans="1:8">
+      <c r="I376" s="18"/>
+    </row>
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377" s="17" t="s">
         <v>857</v>
       </c>
@@ -16981,8 +17387,9 @@
       <c r="H377" s="17" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="I377" s="18"/>
+    </row>
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378" s="17" t="s">
         <v>857</v>
       </c>
@@ -17005,8 +17412,9 @@
       <c r="H378" s="17" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
+      <c r="I378" s="18"/>
+    </row>
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379" s="17" t="s">
         <v>857</v>
       </c>
@@ -17029,8 +17437,9 @@
       <c r="H379" s="17" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
+      <c r="I379" s="18"/>
+    </row>
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380" s="17" t="s">
         <v>857</v>
       </c>
@@ -17053,8 +17462,9 @@
       <c r="H380" s="17" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="381" spans="1:8">
+      <c r="I380" s="18"/>
+    </row>
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" s="17" t="s">
         <v>857</v>
       </c>
@@ -17077,8 +17487,9 @@
       <c r="H381" s="17" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="382" spans="1:8">
+      <c r="I381" s="18"/>
+    </row>
+    <row r="382" spans="1:9" hidden="1">
       <c r="A382" s="17" t="s">
         <v>857</v>
       </c>
@@ -17101,8 +17512,9 @@
       <c r="H382" s="17" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="383" spans="1:8">
+      <c r="I382" s="18"/>
+    </row>
+    <row r="383" spans="1:9" hidden="1">
       <c r="A383" s="17" t="s">
         <v>857</v>
       </c>
@@ -17125,8 +17537,9 @@
       <c r="H383" s="17" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
+      <c r="I383" s="18"/>
+    </row>
+    <row r="384" spans="1:9" hidden="1">
       <c r="A384" s="17" t="s">
         <v>857</v>
       </c>
@@ -17149,8 +17562,9 @@
       <c r="H384" s="17" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="385" spans="1:8">
+      <c r="I384" s="18"/>
+    </row>
+    <row r="385" spans="1:9" hidden="1">
       <c r="A385" s="17" t="s">
         <v>857</v>
       </c>
@@ -17173,8 +17587,9 @@
       <c r="H385" s="17" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="386" spans="1:8">
+      <c r="I385" s="18"/>
+    </row>
+    <row r="386" spans="1:9" hidden="1">
       <c r="A386" s="17" t="s">
         <v>857</v>
       </c>
@@ -17197,8 +17612,9 @@
       <c r="H386" s="17" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="387" spans="1:8">
+      <c r="I386" s="18"/>
+    </row>
+    <row r="387" spans="1:9" hidden="1">
       <c r="A387" s="17" t="s">
         <v>857</v>
       </c>
@@ -17221,8 +17637,9 @@
       <c r="H387" s="17" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="388" spans="1:8">
+      <c r="I387" s="18"/>
+    </row>
+    <row r="388" spans="1:9" hidden="1">
       <c r="A388" s="17" t="s">
         <v>857</v>
       </c>
@@ -17245,8 +17662,9 @@
       <c r="H388" s="17" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="389" spans="1:8">
+      <c r="I388" s="18"/>
+    </row>
+    <row r="389" spans="1:9" hidden="1">
       <c r="A389" s="17" t="s">
         <v>857</v>
       </c>
@@ -17269,8 +17687,9 @@
       <c r="H389" s="17" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="390" spans="1:8">
+      <c r="I389" s="18"/>
+    </row>
+    <row r="390" spans="1:9" hidden="1">
       <c r="A390" s="17" t="s">
         <v>857</v>
       </c>
@@ -17293,8 +17712,9 @@
       <c r="H390" s="17" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="391" spans="1:8">
+      <c r="I390" s="18"/>
+    </row>
+    <row r="391" spans="1:9" hidden="1">
       <c r="A391" s="17" t="s">
         <v>857</v>
       </c>
@@ -17317,8 +17737,9 @@
       <c r="H391" s="17" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="392" spans="1:8">
+      <c r="I391" s="18"/>
+    </row>
+    <row r="392" spans="1:9" hidden="1">
       <c r="A392" s="17" t="s">
         <v>857</v>
       </c>
@@ -17341,8 +17762,9 @@
       <c r="H392" s="18" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="393" spans="1:8">
+      <c r="I392" s="18"/>
+    </row>
+    <row r="393" spans="1:9" hidden="1">
       <c r="A393" s="17" t="s">
         <v>857</v>
       </c>
@@ -17365,8 +17787,9 @@
       <c r="H393" s="17" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="394" spans="1:8">
+      <c r="I393" s="18"/>
+    </row>
+    <row r="394" spans="1:9" hidden="1">
       <c r="A394" s="17" t="s">
         <v>857</v>
       </c>
@@ -17389,8 +17812,9 @@
       <c r="H394" s="18" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="395" spans="1:8">
+      <c r="I394" s="18"/>
+    </row>
+    <row r="395" spans="1:9" hidden="1">
       <c r="A395" s="17" t="s">
         <v>857</v>
       </c>
@@ -17413,8 +17837,9 @@
       <c r="H395" s="17" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="396" spans="1:8">
+      <c r="I395" s="18"/>
+    </row>
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" s="17" t="s">
         <v>857</v>
       </c>
@@ -17437,8 +17862,9 @@
       <c r="H396" s="17" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="397" spans="1:8">
+      <c r="I396" s="18"/>
+    </row>
+    <row r="397" spans="1:9" hidden="1">
       <c r="A397" s="17" t="s">
         <v>857</v>
       </c>
@@ -17461,8 +17887,9 @@
       <c r="H397" s="17" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="398" spans="1:8">
+      <c r="I397" s="18"/>
+    </row>
+    <row r="398" spans="1:9" hidden="1">
       <c r="A398" s="17" t="s">
         <v>857</v>
       </c>
@@ -17485,8 +17912,9 @@
       <c r="H398" s="17" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="399" spans="1:8">
+      <c r="I398" s="18"/>
+    </row>
+    <row r="399" spans="1:9" hidden="1">
       <c r="A399" s="17" t="s">
         <v>857</v>
       </c>
@@ -17509,8 +17937,9 @@
       <c r="H399" s="17" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="400" spans="1:8">
+      <c r="I399" s="18"/>
+    </row>
+    <row r="400" spans="1:9" hidden="1">
       <c r="A400" s="17" t="s">
         <v>857</v>
       </c>
@@ -17533,8 +17962,9 @@
       <c r="H400" s="17" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="401" spans="1:8">
+      <c r="I400" s="18"/>
+    </row>
+    <row r="401" spans="1:9" hidden="1">
       <c r="A401" s="17" t="s">
         <v>857</v>
       </c>
@@ -17557,8 +17987,9 @@
       <c r="H401" s="17" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="402" spans="1:8">
+      <c r="I401" s="18"/>
+    </row>
+    <row r="402" spans="1:9" hidden="1">
       <c r="A402" s="17" t="s">
         <v>857</v>
       </c>
@@ -17581,8 +18012,9 @@
       <c r="H402" s="17" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="403" spans="1:8">
+      <c r="I402" s="18"/>
+    </row>
+    <row r="403" spans="1:9" hidden="1">
       <c r="A403" s="17" t="s">
         <v>857</v>
       </c>
@@ -17605,8 +18037,9 @@
       <c r="H403" s="17" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="404" spans="1:8">
+      <c r="I403" s="18"/>
+    </row>
+    <row r="404" spans="1:9" hidden="1">
       <c r="A404" s="17" t="s">
         <v>857</v>
       </c>
@@ -17629,8 +18062,9 @@
       <c r="H404" s="17" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="405" spans="1:8">
+      <c r="I404" s="18"/>
+    </row>
+    <row r="405" spans="1:9" hidden="1">
       <c r="A405" s="17" t="s">
         <v>857</v>
       </c>
@@ -17653,8 +18087,9 @@
       <c r="H405" s="17" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="406" spans="1:8">
+      <c r="I405" s="18"/>
+    </row>
+    <row r="406" spans="1:9" hidden="1">
       <c r="A406" s="17" t="s">
         <v>857</v>
       </c>
@@ -17677,8 +18112,9 @@
       <c r="H406" s="17" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="407" spans="1:8">
+      <c r="I406" s="18"/>
+    </row>
+    <row r="407" spans="1:9" hidden="1">
       <c r="A407" s="17" t="s">
         <v>857</v>
       </c>
@@ -17701,8 +18137,9 @@
       <c r="H407" s="17" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="408" spans="1:8">
+      <c r="I407" s="18"/>
+    </row>
+    <row r="408" spans="1:9" hidden="1">
       <c r="A408" s="17" t="s">
         <v>857</v>
       </c>
@@ -17725,8 +18162,9 @@
       <c r="H408" s="17" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="409" spans="1:8">
+      <c r="I408" s="18"/>
+    </row>
+    <row r="409" spans="1:9" hidden="1">
       <c r="A409" s="17" t="s">
         <v>857</v>
       </c>
@@ -17749,8 +18187,9 @@
       <c r="H409" s="17" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="410" spans="1:8">
+      <c r="I409" s="18"/>
+    </row>
+    <row r="410" spans="1:9" hidden="1">
       <c r="A410" s="17" t="s">
         <v>857</v>
       </c>
@@ -17773,8 +18212,9 @@
       <c r="H410" s="17" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="411" spans="1:8">
+      <c r="I410" s="18"/>
+    </row>
+    <row r="411" spans="1:9" hidden="1">
       <c r="A411" s="17" t="s">
         <v>857</v>
       </c>
@@ -17797,8 +18237,9 @@
       <c r="H411" s="17" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="412" spans="1:8">
+      <c r="I411" s="18"/>
+    </row>
+    <row r="412" spans="1:9" hidden="1">
       <c r="A412" s="17" t="s">
         <v>857</v>
       </c>
@@ -17821,8 +18262,9 @@
       <c r="H412" s="17" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="413" spans="1:8">
+      <c r="I412" s="18"/>
+    </row>
+    <row r="413" spans="1:9" hidden="1">
       <c r="A413" s="17" t="s">
         <v>857</v>
       </c>
@@ -17845,8 +18287,9 @@
       <c r="H413" s="17" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="414" spans="1:8">
+      <c r="I413" s="18"/>
+    </row>
+    <row r="414" spans="1:9" hidden="1">
       <c r="A414" s="17" t="s">
         <v>857</v>
       </c>
@@ -17869,8 +18312,9 @@
       <c r="H414" s="17" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="415" spans="1:8">
+      <c r="I414" s="18"/>
+    </row>
+    <row r="415" spans="1:9" hidden="1">
       <c r="A415" s="17" t="s">
         <v>857</v>
       </c>
@@ -17893,8 +18337,9 @@
       <c r="H415" s="17" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="416" spans="1:8">
+      <c r="I415" s="18"/>
+    </row>
+    <row r="416" spans="1:9" hidden="1">
       <c r="A416" s="17" t="s">
         <v>857</v>
       </c>
@@ -17917,8 +18362,9 @@
       <c r="H416" s="17" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="417" spans="1:8">
+      <c r="I416" s="18"/>
+    </row>
+    <row r="417" spans="1:9" hidden="1">
       <c r="A417" s="17" t="s">
         <v>857</v>
       </c>
@@ -17941,8 +18387,9 @@
       <c r="H417" s="17" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="418" spans="1:8">
+      <c r="I417" s="18"/>
+    </row>
+    <row r="418" spans="1:9" hidden="1">
       <c r="A418" s="17" t="s">
         <v>857</v>
       </c>
@@ -17965,8 +18412,9 @@
       <c r="H418" s="17" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="419" spans="1:8">
+      <c r="I418" s="18"/>
+    </row>
+    <row r="419" spans="1:9" hidden="1">
       <c r="A419" s="17" t="s">
         <v>857</v>
       </c>
@@ -17989,8 +18437,9 @@
       <c r="H419" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="420" spans="1:8">
+      <c r="I419" s="18"/>
+    </row>
+    <row r="420" spans="1:9" hidden="1">
       <c r="A420" s="17" t="s">
         <v>857</v>
       </c>
@@ -18013,8 +18462,9 @@
       <c r="H420" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="421" spans="1:8">
+      <c r="I420" s="18"/>
+    </row>
+    <row r="421" spans="1:9" hidden="1">
       <c r="A421" s="17" t="s">
         <v>857</v>
       </c>
@@ -18037,8 +18487,9 @@
       <c r="H421" s="17" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="422" spans="1:8">
+      <c r="I421" s="18"/>
+    </row>
+    <row r="422" spans="1:9" hidden="1">
       <c r="A422" s="17" t="s">
         <v>857</v>
       </c>
@@ -18061,8 +18512,9 @@
       <c r="H422" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="423" spans="1:8">
+      <c r="I422" s="18"/>
+    </row>
+    <row r="423" spans="1:9" hidden="1">
       <c r="A423" s="17" t="s">
         <v>857</v>
       </c>
@@ -18085,8 +18537,9 @@
       <c r="H423" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="424" spans="1:8">
+      <c r="I423" s="18"/>
+    </row>
+    <row r="424" spans="1:9" hidden="1">
       <c r="A424" s="17" t="s">
         <v>857</v>
       </c>
@@ -18109,8 +18562,9 @@
       <c r="H424" s="17" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="425" spans="1:8">
+      <c r="I424" s="18"/>
+    </row>
+    <row r="425" spans="1:9" hidden="1">
       <c r="A425" s="17" t="s">
         <v>857</v>
       </c>
@@ -18133,8 +18587,9 @@
       <c r="H425" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="426" spans="1:8">
+      <c r="I425" s="18"/>
+    </row>
+    <row r="426" spans="1:9" hidden="1">
       <c r="A426" s="17" t="s">
         <v>857</v>
       </c>
@@ -18157,8 +18612,9 @@
       <c r="H426" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="427" spans="1:8">
+      <c r="I426" s="18"/>
+    </row>
+    <row r="427" spans="1:9" hidden="1">
       <c r="A427" s="17" t="s">
         <v>857</v>
       </c>
@@ -18181,8 +18637,9 @@
       <c r="H427" s="17" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="428" spans="1:8">
+      <c r="I427" s="18"/>
+    </row>
+    <row r="428" spans="1:9" hidden="1">
       <c r="A428" s="17" t="s">
         <v>857</v>
       </c>
@@ -18205,8 +18662,9 @@
       <c r="H428" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="429" spans="1:8">
+      <c r="I428" s="18"/>
+    </row>
+    <row r="429" spans="1:9" hidden="1">
       <c r="A429" s="17" t="s">
         <v>857</v>
       </c>
@@ -18229,8 +18687,9 @@
       <c r="H429" s="17" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="430" spans="1:8">
+      <c r="I429" s="18"/>
+    </row>
+    <row r="430" spans="1:9" hidden="1">
       <c r="A430" s="17" t="s">
         <v>857</v>
       </c>
@@ -18253,8 +18712,9 @@
       <c r="H430" s="18" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="431" spans="1:8">
+      <c r="I430" s="18"/>
+    </row>
+    <row r="431" spans="1:9" hidden="1">
       <c r="A431" s="17" t="s">
         <v>857</v>
       </c>
@@ -18277,8 +18737,9 @@
       <c r="H431" s="17" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="432" spans="1:8">
+      <c r="I431" s="18"/>
+    </row>
+    <row r="432" spans="1:9" hidden="1">
       <c r="A432" s="17" t="s">
         <v>857</v>
       </c>
@@ -18301,8 +18762,9 @@
       <c r="H432" s="17" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="433" spans="1:8">
+      <c r="I432" s="18"/>
+    </row>
+    <row r="433" spans="1:9" hidden="1">
       <c r="A433" s="17" t="s">
         <v>857</v>
       </c>
@@ -18325,8 +18787,9 @@
       <c r="H433" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="434" spans="1:8">
+      <c r="I433" s="18"/>
+    </row>
+    <row r="434" spans="1:9" hidden="1">
       <c r="A434" s="17" t="s">
         <v>857</v>
       </c>
@@ -18349,8 +18812,9 @@
       <c r="H434" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="435" spans="1:8">
+      <c r="I434" s="18"/>
+    </row>
+    <row r="435" spans="1:9" hidden="1">
       <c r="A435" s="17" t="s">
         <v>857</v>
       </c>
@@ -18371,8 +18835,9 @@
         <v>963</v>
       </c>
       <c r="H435" s="17"/>
-    </row>
-    <row r="436" spans="1:8">
+      <c r="I435" s="18"/>
+    </row>
+    <row r="436" spans="1:9" hidden="1">
       <c r="A436" s="17" t="s">
         <v>857</v>
       </c>
@@ -18395,8 +18860,9 @@
       <c r="H436" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="437" spans="1:8">
+      <c r="I436" s="18"/>
+    </row>
+    <row r="437" spans="1:9" hidden="1">
       <c r="A437" s="17" t="s">
         <v>857</v>
       </c>
@@ -18419,8 +18885,9 @@
       <c r="H437" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="438" spans="1:8">
+      <c r="I437" s="18"/>
+    </row>
+    <row r="438" spans="1:9" hidden="1">
       <c r="A438" s="17" t="s">
         <v>857</v>
       </c>
@@ -18443,8 +18910,9 @@
       <c r="H438" s="17" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="439" spans="1:8">
+      <c r="I438" s="18"/>
+    </row>
+    <row r="439" spans="1:9" hidden="1">
       <c r="A439" s="17" t="s">
         <v>857</v>
       </c>
@@ -18467,8 +18935,9 @@
       <c r="H439" s="17" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="440" spans="1:8">
+      <c r="I439" s="18"/>
+    </row>
+    <row r="440" spans="1:9" hidden="1">
       <c r="A440" s="17" t="s">
         <v>857</v>
       </c>
@@ -18491,8 +18960,9 @@
       <c r="H440" s="17" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="441" spans="1:8">
+      <c r="I440" s="18"/>
+    </row>
+    <row r="441" spans="1:9" hidden="1">
       <c r="A441" s="17" t="s">
         <v>857</v>
       </c>
@@ -18515,8 +18985,9 @@
       <c r="H441" s="17" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="442" spans="1:8">
+      <c r="I441" s="18"/>
+    </row>
+    <row r="442" spans="1:9" hidden="1">
       <c r="A442" s="17" t="s">
         <v>857</v>
       </c>
@@ -18539,8 +19010,9 @@
       <c r="H442" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="443" spans="1:8">
+      <c r="I442" s="18"/>
+    </row>
+    <row r="443" spans="1:9" hidden="1">
       <c r="A443" s="17" t="s">
         <v>857</v>
       </c>
@@ -18563,8 +19035,9 @@
       <c r="H443" s="17" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="444" spans="1:8">
+      <c r="I443" s="18"/>
+    </row>
+    <row r="444" spans="1:9" hidden="1">
       <c r="A444" s="17" t="s">
         <v>857</v>
       </c>
@@ -18587,8 +19060,9 @@
       <c r="H444" s="17" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="445" spans="1:8">
+      <c r="I444" s="18"/>
+    </row>
+    <row r="445" spans="1:9" hidden="1">
       <c r="A445" s="17" t="s">
         <v>857</v>
       </c>
@@ -18611,8 +19085,9 @@
       <c r="H445" s="17" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="446" spans="1:8">
+      <c r="I445" s="18"/>
+    </row>
+    <row r="446" spans="1:9" hidden="1">
       <c r="A446" s="17" t="s">
         <v>857</v>
       </c>
@@ -18635,8 +19110,9 @@
       <c r="H446" s="17" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="447" spans="1:8">
+      <c r="I446" s="18"/>
+    </row>
+    <row r="447" spans="1:9" hidden="1">
       <c r="A447" s="17" t="s">
         <v>857</v>
       </c>
@@ -18659,8 +19135,9 @@
       <c r="H447" s="17" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="448" spans="1:8">
+      <c r="I447" s="18"/>
+    </row>
+    <row r="448" spans="1:9" hidden="1">
       <c r="A448" s="17" t="s">
         <v>857</v>
       </c>
@@ -18683,8 +19160,9 @@
       <c r="H448" s="17" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="449" spans="1:8">
+      <c r="I448" s="18"/>
+    </row>
+    <row r="449" spans="1:9" hidden="1">
       <c r="A449" s="17" t="s">
         <v>857</v>
       </c>
@@ -18707,8 +19185,9 @@
       <c r="H449" s="17" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="450" spans="1:8">
+      <c r="I449" s="18"/>
+    </row>
+    <row r="450" spans="1:9" hidden="1">
       <c r="A450" s="17" t="s">
         <v>857</v>
       </c>
@@ -18731,8 +19210,9 @@
       <c r="H450" s="17" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="451" spans="1:8">
+      <c r="I450" s="18"/>
+    </row>
+    <row r="451" spans="1:9" hidden="1">
       <c r="A451" s="17" t="s">
         <v>857</v>
       </c>
@@ -18755,8 +19235,9 @@
       <c r="H451" s="17" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="452" spans="1:8">
+      <c r="I451" s="18"/>
+    </row>
+    <row r="452" spans="1:9" hidden="1">
       <c r="A452" s="17" t="s">
         <v>857</v>
       </c>
@@ -18779,8 +19260,9 @@
       <c r="H452" s="17" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="453" spans="1:8">
+      <c r="I452" s="18"/>
+    </row>
+    <row r="453" spans="1:9" hidden="1">
       <c r="A453" s="17" t="s">
         <v>857</v>
       </c>
@@ -18803,8 +19285,9 @@
       <c r="H453" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="454" spans="1:8">
+      <c r="I453" s="18"/>
+    </row>
+    <row r="454" spans="1:9" hidden="1">
       <c r="A454" s="17" t="s">
         <v>857</v>
       </c>
@@ -18827,8 +19310,9 @@
       <c r="H454" s="17" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="455" spans="1:8">
+      <c r="I454" s="18"/>
+    </row>
+    <row r="455" spans="1:9" hidden="1">
       <c r="A455" s="17" t="s">
         <v>857</v>
       </c>
@@ -18851,8 +19335,9 @@
       <c r="H455" s="17" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="456" spans="1:8">
+      <c r="I455" s="18"/>
+    </row>
+    <row r="456" spans="1:9" hidden="1">
       <c r="A456" s="17" t="s">
         <v>857</v>
       </c>
@@ -18875,8 +19360,9 @@
       <c r="H456" s="17" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="457" spans="1:8">
+      <c r="I456" s="18"/>
+    </row>
+    <row r="457" spans="1:9" hidden="1">
       <c r="A457" s="17" t="s">
         <v>857</v>
       </c>
@@ -18899,8 +19385,9 @@
       <c r="H457" s="17" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="458" spans="1:8">
+      <c r="I457" s="18"/>
+    </row>
+    <row r="458" spans="1:9" hidden="1">
       <c r="A458" s="17" t="s">
         <v>857</v>
       </c>
@@ -18923,8 +19410,9 @@
       <c r="H458" s="17" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="459" spans="1:8">
+      <c r="I458" s="18"/>
+    </row>
+    <row r="459" spans="1:9" hidden="1">
       <c r="A459" s="17" t="s">
         <v>857</v>
       </c>
@@ -18947,8 +19435,9 @@
       <c r="H459" s="17" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="460" spans="1:8">
+      <c r="I459" s="18"/>
+    </row>
+    <row r="460" spans="1:9" hidden="1">
       <c r="A460" s="17" t="s">
         <v>857</v>
       </c>
@@ -18971,8 +19460,9 @@
       <c r="H460" s="17" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="461" spans="1:8">
+      <c r="I460" s="18"/>
+    </row>
+    <row r="461" spans="1:9" hidden="1">
       <c r="A461" s="17" t="s">
         <v>857</v>
       </c>
@@ -18995,8 +19485,9 @@
       <c r="H461" s="18" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="462" spans="1:8">
+      <c r="I461" s="18"/>
+    </row>
+    <row r="462" spans="1:9" hidden="1">
       <c r="A462" s="17" t="s">
         <v>857</v>
       </c>
@@ -19019,8 +19510,9 @@
       <c r="H462" s="17" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="463" spans="1:8">
+      <c r="I462" s="18"/>
+    </row>
+    <row r="463" spans="1:9" hidden="1">
       <c r="A463" s="17" t="s">
         <v>857</v>
       </c>
@@ -19043,8 +19535,9 @@
       <c r="H463" s="18" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="464" spans="1:8">
+      <c r="I463" s="18"/>
+    </row>
+    <row r="464" spans="1:9" hidden="1">
       <c r="A464" s="17" t="s">
         <v>857</v>
       </c>
@@ -19067,8 +19560,9 @@
       <c r="H464" s="17" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="465" spans="1:8">
+      <c r="I464" s="18"/>
+    </row>
+    <row r="465" spans="1:9" hidden="1">
       <c r="A465" s="17" t="s">
         <v>857</v>
       </c>
@@ -19089,8 +19583,9 @@
         <v>963</v>
       </c>
       <c r="H465" s="17"/>
-    </row>
-    <row r="466" spans="1:8">
+      <c r="I465" s="18"/>
+    </row>
+    <row r="466" spans="1:9" hidden="1">
       <c r="A466" s="17" t="s">
         <v>857</v>
       </c>
@@ -19113,8 +19608,9 @@
       <c r="H466" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="467" spans="1:8">
+      <c r="I466" s="18"/>
+    </row>
+    <row r="467" spans="1:9" hidden="1">
       <c r="A467" s="17" t="s">
         <v>857</v>
       </c>
@@ -19137,8 +19633,9 @@
       <c r="H467" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="468" spans="1:8">
+      <c r="I467" s="18"/>
+    </row>
+    <row r="468" spans="1:9" hidden="1">
       <c r="A468" s="17" t="s">
         <v>857</v>
       </c>
@@ -19161,8 +19658,9 @@
       <c r="H468" s="17" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="469" spans="1:8">
+      <c r="I468" s="18"/>
+    </row>
+    <row r="469" spans="1:9" hidden="1">
       <c r="A469" s="17" t="s">
         <v>857</v>
       </c>
@@ -19185,8 +19683,9 @@
       <c r="H469" s="17" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="470" spans="1:8">
+      <c r="I469" s="18"/>
+    </row>
+    <row r="470" spans="1:9" hidden="1">
       <c r="A470" s="17" t="s">
         <v>857</v>
       </c>
@@ -19209,8 +19708,9 @@
       <c r="H470" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="471" spans="1:8">
+      <c r="I470" s="18"/>
+    </row>
+    <row r="471" spans="1:9" hidden="1">
       <c r="A471" s="17" t="s">
         <v>857</v>
       </c>
@@ -19233,8 +19733,9 @@
       <c r="H471" s="17" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="472" spans="1:8">
+      <c r="I471" s="18"/>
+    </row>
+    <row r="472" spans="1:9" hidden="1">
       <c r="A472" s="17" t="s">
         <v>857</v>
       </c>
@@ -19257,8 +19758,9 @@
       <c r="H472" s="17" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="473" spans="1:8">
+      <c r="I472" s="18"/>
+    </row>
+    <row r="473" spans="1:9" hidden="1">
       <c r="A473" s="17" t="s">
         <v>857</v>
       </c>
@@ -19281,8 +19783,9 @@
       <c r="H473" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="474" spans="1:8">
+      <c r="I473" s="18"/>
+    </row>
+    <row r="474" spans="1:9" hidden="1">
       <c r="A474" s="17" t="s">
         <v>857</v>
       </c>
@@ -19305,8 +19808,9 @@
       <c r="H474" s="17" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="475" spans="1:8">
+      <c r="I474" s="18"/>
+    </row>
+    <row r="475" spans="1:9" hidden="1">
       <c r="A475" s="17" t="s">
         <v>857</v>
       </c>
@@ -19329,8 +19833,9 @@
       <c r="H475" s="17" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="476" spans="1:8">
+      <c r="I475" s="18"/>
+    </row>
+    <row r="476" spans="1:9" hidden="1">
       <c r="A476" s="17" t="s">
         <v>857</v>
       </c>
@@ -19353,8 +19858,9 @@
       <c r="H476" s="17" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="477" spans="1:8">
+      <c r="I476" s="18"/>
+    </row>
+    <row r="477" spans="1:9" hidden="1">
       <c r="A477" s="17" t="s">
         <v>857</v>
       </c>
@@ -19377,8 +19883,9 @@
       <c r="H477" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="478" spans="1:8">
+      <c r="I477" s="18"/>
+    </row>
+    <row r="478" spans="1:9" hidden="1">
       <c r="A478" s="17" t="s">
         <v>857</v>
       </c>
@@ -19401,8 +19908,9 @@
       <c r="H478" s="17" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="479" spans="1:8">
+      <c r="I478" s="18"/>
+    </row>
+    <row r="479" spans="1:9" hidden="1">
       <c r="A479" s="17" t="s">
         <v>857</v>
       </c>
@@ -19425,8 +19933,9 @@
       <c r="H479" s="17" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="480" spans="1:8">
+      <c r="I479" s="18"/>
+    </row>
+    <row r="480" spans="1:9" hidden="1">
       <c r="A480" s="17" t="s">
         <v>857</v>
       </c>
@@ -19449,8 +19958,9 @@
       <c r="H480" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="481" spans="1:8">
+      <c r="I480" s="18"/>
+    </row>
+    <row r="481" spans="1:9" hidden="1">
       <c r="A481" s="17" t="s">
         <v>857</v>
       </c>
@@ -19473,8 +19983,9 @@
       <c r="H481" s="17" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="482" spans="1:8">
+      <c r="I481" s="18"/>
+    </row>
+    <row r="482" spans="1:9" hidden="1">
       <c r="A482" s="17" t="s">
         <v>857</v>
       </c>
@@ -19497,8 +20008,9 @@
       <c r="H482" s="17" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="483" spans="1:8">
+      <c r="I482" s="18"/>
+    </row>
+    <row r="483" spans="1:9" hidden="1">
       <c r="A483" s="17" t="s">
         <v>857</v>
       </c>
@@ -19521,6 +20033,7 @@
       <c r="H483" s="17" t="s">
         <v>856</v>
       </c>
+      <c r="I483" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Posicionamento Migração.xlsx
+++ b/Documentação/Planilhas/Posicionamento Migração.xlsx
@@ -3140,7 +3140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3150,6 +3150,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,7 +3264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3273,6 +3297,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3312,6 +3338,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3479,13 +3507,16 @@
   <autoFilter ref="A1:I483">
     <filterColumn colId="0">
       <filters>
-        <filter val="Relatório Follow"/>
+        <filter val="Retira em Loja"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="8"/>
   </autoFilter>
+  <sortState ref="A89:I107">
+    <sortCondition ref="G1:G483"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Processo" dataDxfId="8"/>
     <tableColumn id="8" name="Periodicidade de Carga" dataDxfId="7"/>
@@ -6190,19 +6221,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>253</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -6216,13 +6247,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
@@ -6230,66 +6261,66 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6608,64 +6639,64 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="31" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
@@ -6840,19 +6871,19 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="22" t="s">
         <v>344</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -6860,13 +6891,13 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="5" t="s">
         <v>346</v>
       </c>
@@ -7673,9 +7704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H269" sqref="H269:H282"/>
+      <selection pane="bottomLeft" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7684,8 +7715,8 @@
     <col min="2" max="2" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" style="15" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="15"/>
@@ -10091,10 +10122,10 @@
         <v>536</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="I90" s="18"/>
     </row>
@@ -10112,16 +10143,16 @@
         <v>537</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I91" s="18"/>
     </row>
@@ -10148,7 +10179,7 @@
         <v>402</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="I92" s="18"/>
     </row>
@@ -10175,7 +10206,7 @@
         <v>402</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
       <c r="I93" s="18"/>
     </row>
@@ -10199,10 +10230,10 @@
         <v>536</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="I94" s="18"/>
     </row>
@@ -10229,7 +10260,7 @@
         <v>402</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="I95" s="18"/>
     </row>
@@ -10253,10 +10284,10 @@
         <v>536</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="I96" s="18"/>
     </row>
@@ -10280,10 +10311,10 @@
         <v>536</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="I97" s="18"/>
     </row>
@@ -10310,7 +10341,7 @@
         <v>402</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="I98" s="18"/>
     </row>
@@ -10334,10 +10365,10 @@
         <v>536</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="I99" s="18"/>
     </row>
@@ -10355,16 +10386,16 @@
         <v>537</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>402</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="I100" s="18"/>
     </row>
@@ -10382,16 +10413,16 @@
         <v>537</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>402</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="I101" s="18"/>
     </row>
@@ -10418,7 +10449,7 @@
         <v>402</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>400</v>
+        <v>546</v>
       </c>
       <c r="I102" s="18"/>
     </row>
@@ -10442,10 +10473,10 @@
         <v>544</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I103" s="18"/>
     </row>
@@ -10463,16 +10494,16 @@
         <v>537</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
       <c r="I104" s="18"/>
     </row>
@@ -10490,16 +10521,16 @@
         <v>537</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>546</v>
+        <v>406</v>
       </c>
       <c r="I105" s="18"/>
     </row>
@@ -10517,16 +10548,16 @@
         <v>537</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>541</v>
+        <v>453</v>
       </c>
       <c r="I106" s="18"/>
     </row>
@@ -10557,7 +10588,7 @@
       </c>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" s="15" t="s">
         <v>384</v>
       </c>
@@ -10584,7 +10615,7 @@
       </c>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" s="15" t="s">
         <v>384</v>
       </c>
@@ -10611,7 +10642,7 @@
       </c>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" s="15" t="s">
         <v>384</v>
       </c>
@@ -10638,7 +10669,7 @@
       </c>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" s="15" t="s">
         <v>384</v>
       </c>
@@ -10665,7 +10696,7 @@
       </c>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:9" hidden="1">
+    <row r="112" spans="1:9">
       <c r="A112" s="15" t="s">
         <v>384</v>
       </c>
@@ -10692,7 +10723,7 @@
       </c>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:9" hidden="1">
+    <row r="113" spans="1:9">
       <c r="A113" s="15" t="s">
         <v>384</v>
       </c>
@@ -10719,7 +10750,7 @@
       </c>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:9" hidden="1">
+    <row r="114" spans="1:9">
       <c r="A114" s="15" t="s">
         <v>384</v>
       </c>
@@ -10746,7 +10777,7 @@
       </c>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:9" hidden="1">
+    <row r="115" spans="1:9">
       <c r="A115" s="15" t="s">
         <v>384</v>
       </c>
@@ -10773,7 +10804,7 @@
       </c>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" s="15" t="s">
         <v>384</v>
       </c>
@@ -10800,7 +10831,7 @@
       </c>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" s="15" t="s">
         <v>384</v>
       </c>
@@ -10827,7 +10858,7 @@
       </c>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="15" t="s">
         <v>384</v>
       </c>
@@ -10854,7 +10885,7 @@
       </c>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" s="15" t="s">
         <v>384</v>
       </c>
@@ -10881,7 +10912,7 @@
       </c>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" s="15" t="s">
         <v>384</v>
       </c>
@@ -10908,7 +10939,7 @@
       </c>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" s="15" t="s">
         <v>384</v>
       </c>
@@ -10935,7 +10966,7 @@
       </c>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" s="15" t="s">
         <v>384</v>
       </c>
@@ -13356,7 +13387,7 @@
       <c r="F216" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="G216" s="15" t="s">
+      <c r="G216" s="21" t="s">
         <v>404</v>
       </c>
       <c r="H216" s="15" t="s">
@@ -13381,7 +13412,7 @@
       <c r="F217" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="G217" s="15" t="s">
+      <c r="G217" s="20" t="s">
         <v>402</v>
       </c>
       <c r="H217" s="15" t="s">
@@ -13406,7 +13437,7 @@
       <c r="F218" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="G218" s="15" t="s">
+      <c r="G218" s="35" t="s">
         <v>420</v>
       </c>
       <c r="H218" s="15" t="s">
@@ -13431,7 +13462,7 @@
       <c r="F219" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="G219" s="15" t="s">
+      <c r="G219" s="36" t="s">
         <v>443</v>
       </c>
       <c r="H219" s="15" t="s">
@@ -13744,7 +13775,7 @@
         <v>648</v>
       </c>
       <c r="B232" s="16"/>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="21" t="s">
         <v>755</v>
       </c>
       <c r="D232" s="15" t="s">
@@ -13819,7 +13850,7 @@
         <v>648</v>
       </c>
       <c r="B235" s="16"/>
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="20" t="s">
         <v>772</v>
       </c>
       <c r="D235" s="15" t="s">
@@ -13919,7 +13950,7 @@
         <v>648</v>
       </c>
       <c r="B239" s="16"/>
-      <c r="C239" s="15" t="s">
+      <c r="C239" s="20" t="s">
         <v>777</v>
       </c>
       <c r="D239" s="15" t="s">
@@ -13969,7 +14000,7 @@
         <v>648</v>
       </c>
       <c r="B241" s="16"/>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="21" t="s">
         <v>780</v>
       </c>
       <c r="D241" s="15" t="s">
@@ -14144,7 +14175,7 @@
         <v>783</v>
       </c>
       <c r="B248" s="16"/>
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D248" s="15" t="s">
@@ -14169,7 +14200,7 @@
         <v>783</v>
       </c>
       <c r="B249" s="16"/>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D249" s="15" t="s">
@@ -14194,7 +14225,7 @@
         <v>783</v>
       </c>
       <c r="B250" s="16"/>
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D250" s="15" t="s">
@@ -14219,7 +14250,7 @@
         <v>783</v>
       </c>
       <c r="B251" s="16"/>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D251" s="15" t="s">
@@ -14244,7 +14275,7 @@
         <v>783</v>
       </c>
       <c r="B252" s="16"/>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D252" s="15" t="s">
@@ -14269,7 +14300,7 @@
         <v>783</v>
       </c>
       <c r="B253" s="16"/>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="20" t="s">
         <v>788</v>
       </c>
       <c r="D253" s="15" t="s">
@@ -14319,7 +14350,7 @@
         <v>783</v>
       </c>
       <c r="B255" s="16"/>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D255" s="15" t="s">
@@ -14344,7 +14375,7 @@
         <v>783</v>
       </c>
       <c r="B256" s="16"/>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D256" s="15" t="s">
@@ -14369,7 +14400,7 @@
         <v>783</v>
       </c>
       <c r="B257" s="16"/>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D257" s="15" t="s">
@@ -14394,7 +14425,7 @@
         <v>783</v>
       </c>
       <c r="B258" s="16"/>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D258" s="15" t="s">
@@ -14419,7 +14450,7 @@
         <v>783</v>
       </c>
       <c r="B259" s="16"/>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D259" s="15" t="s">
@@ -14444,7 +14475,7 @@
         <v>783</v>
       </c>
       <c r="B260" s="16"/>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D260" s="15" t="s">
@@ -14469,7 +14500,7 @@
         <v>783</v>
       </c>
       <c r="B261" s="16"/>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D261" s="15" t="s">
@@ -14494,7 +14525,7 @@
         <v>783</v>
       </c>
       <c r="B262" s="16"/>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D262" s="15" t="s">
@@ -14519,7 +14550,7 @@
         <v>783</v>
       </c>
       <c r="B263" s="16"/>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D263" s="15" t="s">
@@ -14544,7 +14575,7 @@
         <v>783</v>
       </c>
       <c r="B264" s="16"/>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D264" s="15" t="s">
@@ -14569,7 +14600,7 @@
         <v>783</v>
       </c>
       <c r="B265" s="16"/>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D265" s="15" t="s">
@@ -14594,7 +14625,7 @@
         <v>783</v>
       </c>
       <c r="B266" s="16"/>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D266" s="15" t="s">
@@ -14619,7 +14650,7 @@
         <v>783</v>
       </c>
       <c r="B267" s="16"/>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D267" s="15" t="s">
@@ -14644,7 +14675,7 @@
         <v>783</v>
       </c>
       <c r="B268" s="16"/>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="20" t="s">
         <v>805</v>
       </c>
       <c r="D268" s="15" t="s">
@@ -14664,7 +14695,7 @@
       </c>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="18" t="s">
         <v>562</v>
       </c>
@@ -14689,7 +14720,7 @@
       </c>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="18" t="s">
         <v>562</v>
       </c>
@@ -14714,7 +14745,7 @@
       </c>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" s="18" t="s">
         <v>562</v>
       </c>
@@ -14739,7 +14770,7 @@
       </c>
       <c r="I271" s="18"/>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" s="18" t="s">
         <v>562</v>
       </c>
@@ -14764,7 +14795,7 @@
       </c>
       <c r="I272" s="18"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273" s="18" t="s">
         <v>562</v>
       </c>
@@ -14789,7 +14820,7 @@
       </c>
       <c r="I273" s="18"/>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="18" t="s">
         <v>562</v>
       </c>
@@ -14814,7 +14845,7 @@
       </c>
       <c r="I274" s="18"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" s="18" t="s">
         <v>562</v>
       </c>
@@ -14839,7 +14870,7 @@
       </c>
       <c r="I275" s="18"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" s="18" t="s">
         <v>562</v>
       </c>
@@ -14864,7 +14895,7 @@
       </c>
       <c r="I276" s="18"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="18" t="s">
         <v>562</v>
       </c>
@@ -14889,7 +14920,7 @@
       </c>
       <c r="I277" s="18"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="18" t="s">
         <v>562</v>
       </c>
@@ -14914,7 +14945,7 @@
       </c>
       <c r="I278" s="18"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="18" t="s">
         <v>562</v>
       </c>
@@ -14939,7 +14970,7 @@
       </c>
       <c r="I279" s="18"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" s="18" t="s">
         <v>562</v>
       </c>
@@ -14964,7 +14995,7 @@
       </c>
       <c r="I280" s="18"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="18" t="s">
         <v>562</v>
       </c>
@@ -14989,7 +15020,7 @@
       </c>
       <c r="I281" s="18"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" s="18" t="s">
         <v>562</v>
       </c>
@@ -15014,7 +15045,7 @@
       </c>
       <c r="I282" s="18"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="18" t="s">
         <v>562</v>
       </c>
@@ -15039,7 +15070,7 @@
       </c>
       <c r="I283" s="18"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" s="18" t="s">
         <v>562</v>
       </c>
@@ -15064,7 +15095,7 @@
       </c>
       <c r="I284" s="18"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="18" t="s">
         <v>562</v>
       </c>
